--- a/data/output/FV2404_FV2310/UTILMD/55060.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55060.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19636" uniqueCount="1147">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19657" uniqueCount="1147">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3683,6 +3683,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1024" totalsRowShown="0">
+  <autoFilter ref="A1:U1024"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3972,7 +4002,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -48867,5 +48900,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55060.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55060.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23675" uniqueCount="2155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23345" uniqueCount="2155">
   <si>
     <t>#</t>
   </si>
@@ -12193,9 +12193,7 @@
         <v>656</v>
       </c>
       <c r="K100" s="2"/>
-      <c r="L100" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L100" s="7"/>
       <c r="M100" s="2" t="s">
         <v>43</v>
       </c>
@@ -12249,9 +12247,7 @@
         <v>656</v>
       </c>
       <c r="K101" s="2"/>
-      <c r="L101" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L101" s="7"/>
       <c r="M101" s="2" t="s">
         <v>43</v>
       </c>
@@ -12305,9 +12301,7 @@
         <v>656</v>
       </c>
       <c r="K102" s="2"/>
-      <c r="L102" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L102" s="7"/>
       <c r="M102" s="2" t="s">
         <v>43</v>
       </c>
@@ -12747,9 +12741,7 @@
         <v>656</v>
       </c>
       <c r="K110" s="2"/>
-      <c r="L110" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L110" s="7"/>
       <c r="M110" s="2" t="s">
         <v>45</v>
       </c>
@@ -13000,46 +12992,44 @@
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2" t="s">
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="L115" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M115" s="2" t="s">
+      <c r="L115" s="7"/>
+      <c r="M115" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N115" s="2" t="s">
+      <c r="N115" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2" t="s">
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="V115" s="2" t="s">
+      <c r="V115" s="5" t="s">
         <v>813</v>
       </c>
     </row>
@@ -13310,44 +13300,42 @@
       </c>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2" t="s">
+      <c r="C121" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K121" s="2"/>
-      <c r="L121" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M121" s="2" t="s">
+      <c r="K121" s="5"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N121" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2" t="s">
+      <c r="N121" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V121" s="2"/>
+      <c r="V121" s="5"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="2" t="s">
@@ -13539,9 +13527,7 @@
         <v>656</v>
       </c>
       <c r="K125" s="2"/>
-      <c r="L125" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L125" s="7"/>
       <c r="M125" s="2" t="s">
         <v>49</v>
       </c>
@@ -13568,44 +13554,42 @@
       <c r="V125" s="2"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2" t="s">
+      <c r="C126" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K126" s="2"/>
-      <c r="L126" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M126" s="2" t="s">
+      <c r="K126" s="5"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N126" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2" t="s">
+      <c r="N126" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V126" s="2"/>
+      <c r="V126" s="5"/>
     </row>
     <row r="127" spans="1:22">
       <c r="A127" s="2" t="s">
@@ -13998,46 +13982,44 @@
       <c r="V134" s="9"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="5" t="s">
         <v>1272</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2" t="s">
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="L135" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M135" s="2" t="s">
+      <c r="L135" s="7"/>
+      <c r="M135" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N135" s="2" t="s">
+      <c r="N135" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
-      <c r="T135" s="2"/>
-      <c r="U135" s="2" t="s">
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="V135" s="2" t="s">
+      <c r="V135" s="5" t="s">
         <v>814</v>
       </c>
     </row>
@@ -14524,44 +14506,42 @@
       <c r="V144" s="2"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="s">
+      <c r="C145" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K145" s="2"/>
-      <c r="L145" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M145" s="2" t="s">
+      <c r="K145" s="5"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N145" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2" t="s">
+      <c r="N145" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V145" s="2"/>
+      <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="2" t="s">
@@ -14772,44 +14752,42 @@
       <c r="V149" s="2"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="5" t="s">
         <v>1286</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2" t="s">
+      <c r="C150" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K150" s="2"/>
-      <c r="L150" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M150" s="2" t="s">
+      <c r="K150" s="5"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N150" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2" t="s">
+      <c r="N150" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V150" s="2"/>
+      <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="2" t="s">
@@ -15047,9 +15025,7 @@
         <v>685</v>
       </c>
       <c r="K155" s="2"/>
-      <c r="L155" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L155" s="7"/>
       <c r="M155" s="2" t="s">
         <v>55</v>
       </c>
@@ -15076,46 +15052,44 @@
       <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="L156" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M156" s="2" t="s">
+      <c r="L156" s="7"/>
+      <c r="M156" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N156" s="2" t="s">
+      <c r="N156" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2" t="s">
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="V156" s="2" t="s">
+      <c r="V156" s="5" t="s">
         <v>814</v>
       </c>
     </row>
@@ -15606,46 +15580,44 @@
       <c r="V165" s="2"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="5" t="s">
         <v>1302</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2" t="s">
+      <c r="C166" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="L166" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M166" s="2" t="s">
+      <c r="L166" s="7"/>
+      <c r="M166" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N166" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2" t="s">
+      <c r="N166" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="V166" s="2" t="s">
+      <c r="V166" s="5" t="s">
         <v>816</v>
       </c>
     </row>
@@ -15808,44 +15780,42 @@
       <c r="V169" s="2"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2" t="s">
+      <c r="C170" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K170" s="2"/>
-      <c r="L170" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M170" s="2" t="s">
+      <c r="K170" s="5"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N170" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="2"/>
-      <c r="U170" s="2" t="s">
+      <c r="N170" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+      <c r="U170" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V170" s="2"/>
+      <c r="V170" s="5"/>
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="2" t="s">
@@ -16083,9 +16053,7 @@
         <v>656</v>
       </c>
       <c r="K175" s="2"/>
-      <c r="L175" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L175" s="7"/>
       <c r="M175" s="2" t="s">
         <v>59</v>
       </c>
@@ -16166,44 +16134,42 @@
       <c r="V176" s="2"/>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2" t="s">
+      <c r="C177" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K177" s="2"/>
-      <c r="L177" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M177" s="2" t="s">
+      <c r="K177" s="5"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N177" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2" t="s">
+      <c r="N177" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="5"/>
+      <c r="S177" s="5"/>
+      <c r="T177" s="5"/>
+      <c r="U177" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V177" s="2"/>
+      <c r="V177" s="5"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="2" t="s">
@@ -16337,9 +16303,7 @@
         <v>659</v>
       </c>
       <c r="K180" s="2"/>
-      <c r="L180" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L180" s="7"/>
       <c r="M180" s="2" t="s">
         <v>60</v>
       </c>
@@ -16366,46 +16330,44 @@
       <c r="V180" s="2"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="5" t="s">
         <v>1317</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2" t="s">
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="L181" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M181" s="2" t="s">
+      <c r="L181" s="7"/>
+      <c r="M181" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N181" s="2" t="s">
+      <c r="N181" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2" t="s">
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+      <c r="U181" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="V181" s="2" t="s">
+      <c r="V181" s="5" t="s">
         <v>817</v>
       </c>
     </row>
@@ -16676,46 +16638,44 @@
       </c>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2" t="s">
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="L187" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M187" s="2" t="s">
+      <c r="L187" s="7"/>
+      <c r="M187" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N187" s="2" t="s">
+      <c r="N187" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2" t="s">
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="5"/>
+      <c r="S187" s="5"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="V187" s="2" t="s">
+      <c r="V187" s="5" t="s">
         <v>818</v>
       </c>
     </row>
@@ -16851,9 +16811,7 @@
         <v>656</v>
       </c>
       <c r="K190" s="2"/>
-      <c r="L190" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L190" s="7"/>
       <c r="M190" s="2" t="s">
         <v>63</v>
       </c>
@@ -17025,9 +16983,7 @@
       <c r="K193" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="L193" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L193" s="7"/>
       <c r="M193" s="2" t="s">
         <v>63</v>
       </c>
@@ -17320,44 +17276,42 @@
       <c r="V198" s="2"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2" t="s">
+      <c r="C199" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K199" s="2"/>
-      <c r="L199" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M199" s="2" t="s">
+      <c r="K199" s="5"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N199" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2" t="s">
+      <c r="N199" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="5"/>
+      <c r="T199" s="5"/>
+      <c r="U199" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V199" s="2"/>
+      <c r="V199" s="5"/>
     </row>
     <row r="200" spans="1:22">
       <c r="A200" s="2" t="s">
@@ -17549,9 +17503,7 @@
         <v>656</v>
       </c>
       <c r="K203" s="2"/>
-      <c r="L203" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L203" s="7"/>
       <c r="M203" s="2" t="s">
         <v>65</v>
       </c>
@@ -17578,44 +17530,42 @@
       <c r="V203" s="2"/>
     </row>
     <row r="204" spans="1:22">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2" t="s">
+      <c r="C204" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K204" s="2"/>
-      <c r="L204" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M204" s="2" t="s">
+      <c r="K204" s="5"/>
+      <c r="L204" s="7"/>
+      <c r="M204" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N204" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O204" s="2"/>
-      <c r="P204" s="2"/>
-      <c r="Q204" s="2"/>
-      <c r="R204" s="2"/>
-      <c r="S204" s="2"/>
-      <c r="T204" s="2"/>
-      <c r="U204" s="2" t="s">
+      <c r="N204" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="5"/>
+      <c r="S204" s="5"/>
+      <c r="T204" s="5"/>
+      <c r="U204" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V204" s="2"/>
+      <c r="V204" s="5"/>
     </row>
     <row r="205" spans="1:22">
       <c r="A205" s="2" t="s">
@@ -18289,9 +18239,7 @@
         <v>656</v>
       </c>
       <c r="K217" s="2"/>
-      <c r="L217" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L217" s="7"/>
       <c r="M217" s="2" t="s">
         <v>51</v>
       </c>
@@ -18446,44 +18394,42 @@
       <c r="V220" s="9"/>
     </row>
     <row r="221" spans="1:22">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2" t="s">
+      <c r="C221" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K221" s="2"/>
-      <c r="L221" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M221" s="2" t="s">
+      <c r="K221" s="5"/>
+      <c r="L221" s="7"/>
+      <c r="M221" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N221" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
-      <c r="Q221" s="2"/>
-      <c r="R221" s="2"/>
-      <c r="S221" s="2"/>
-      <c r="T221" s="2"/>
-      <c r="U221" s="2" t="s">
+      <c r="N221" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O221" s="5"/>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="5"/>
+      <c r="S221" s="5"/>
+      <c r="T221" s="5"/>
+      <c r="U221" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V221" s="2"/>
+      <c r="V221" s="5"/>
     </row>
     <row r="222" spans="1:22">
       <c r="A222" s="2" t="s">
@@ -18721,9 +18667,7 @@
         <v>656</v>
       </c>
       <c r="K226" s="2"/>
-      <c r="L226" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L226" s="7"/>
       <c r="M226" s="2" t="s">
         <v>68</v>
       </c>
@@ -18777,9 +18721,7 @@
         <v>656</v>
       </c>
       <c r="K227" s="2"/>
-      <c r="L227" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L227" s="7"/>
       <c r="M227" s="2" t="s">
         <v>68</v>
       </c>
@@ -18833,9 +18775,7 @@
         <v>656</v>
       </c>
       <c r="K228" s="2"/>
-      <c r="L228" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L228" s="7"/>
       <c r="M228" s="2" t="s">
         <v>68</v>
       </c>
@@ -18862,44 +18802,42 @@
       <c r="V228" s="2"/>
     </row>
     <row r="229" spans="1:22">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2" t="s">
+      <c r="C229" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K229" s="2"/>
-      <c r="L229" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M229" s="2" t="s">
+      <c r="K229" s="5"/>
+      <c r="L229" s="7"/>
+      <c r="M229" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N229" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
-      <c r="Q229" s="2"/>
-      <c r="R229" s="2"/>
-      <c r="S229" s="2"/>
-      <c r="T229" s="2"/>
-      <c r="U229" s="2" t="s">
+      <c r="N229" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O229" s="5"/>
+      <c r="P229" s="5"/>
+      <c r="Q229" s="5"/>
+      <c r="R229" s="5"/>
+      <c r="S229" s="5"/>
+      <c r="T229" s="5"/>
+      <c r="U229" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V229" s="2"/>
+      <c r="V229" s="5"/>
     </row>
     <row r="230" spans="1:22">
       <c r="A230" s="2" t="s">
@@ -19137,9 +19075,7 @@
         <v>656</v>
       </c>
       <c r="K234" s="2"/>
-      <c r="L234" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L234" s="7"/>
       <c r="M234" s="2" t="s">
         <v>69</v>
       </c>
@@ -19166,44 +19102,42 @@
       <c r="V234" s="2"/>
     </row>
     <row r="235" spans="1:22">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2" t="s">
+      <c r="C235" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K235" s="2"/>
-      <c r="L235" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M235" s="2" t="s">
+      <c r="K235" s="5"/>
+      <c r="L235" s="7"/>
+      <c r="M235" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N235" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="2"/>
-      <c r="U235" s="2" t="s">
+      <c r="N235" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V235" s="2"/>
+      <c r="V235" s="5"/>
     </row>
     <row r="236" spans="1:22">
       <c r="A236" s="2" t="s">
@@ -19395,9 +19329,7 @@
         <v>656</v>
       </c>
       <c r="K239" s="2"/>
-      <c r="L239" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L239" s="7"/>
       <c r="M239" s="2" t="s">
         <v>70</v>
       </c>
@@ -19424,44 +19356,42 @@
       <c r="V239" s="2"/>
     </row>
     <row r="240" spans="1:22">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2" t="s">
+      <c r="C240" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K240" s="2"/>
-      <c r="L240" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M240" s="2" t="s">
+      <c r="K240" s="5"/>
+      <c r="L240" s="7"/>
+      <c r="M240" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N240" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O240" s="2"/>
-      <c r="P240" s="2"/>
-      <c r="Q240" s="2"/>
-      <c r="R240" s="2"/>
-      <c r="S240" s="2"/>
-      <c r="T240" s="2"/>
-      <c r="U240" s="2" t="s">
+      <c r="N240" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O240" s="5"/>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="5"/>
+      <c r="R240" s="5"/>
+      <c r="S240" s="5"/>
+      <c r="T240" s="5"/>
+      <c r="U240" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V240" s="2"/>
+      <c r="V240" s="5"/>
     </row>
     <row r="241" spans="1:22">
       <c r="A241" s="2" t="s">
@@ -19595,9 +19525,7 @@
         <v>656</v>
       </c>
       <c r="K243" s="2"/>
-      <c r="L243" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L243" s="7"/>
       <c r="M243" s="2" t="s">
         <v>71</v>
       </c>
@@ -19759,9 +19687,7 @@
         <v>659</v>
       </c>
       <c r="K246" s="2"/>
-      <c r="L246" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L246" s="7"/>
       <c r="M246" s="2" t="s">
         <v>72</v>
       </c>
@@ -19815,9 +19741,7 @@
         <v>659</v>
       </c>
       <c r="K247" s="2"/>
-      <c r="L247" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L247" s="7"/>
       <c r="M247" s="2" t="s">
         <v>72</v>
       </c>
@@ -19844,46 +19768,44 @@
       <c r="V247" s="2"/>
     </row>
     <row r="248" spans="1:22">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
-      <c r="J248" s="2" t="s">
+      <c r="C248" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="K248" s="2" t="s">
+      <c r="K248" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="L248" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M248" s="2" t="s">
+      <c r="L248" s="7"/>
+      <c r="M248" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N248" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O248" s="2"/>
-      <c r="P248" s="2"/>
-      <c r="Q248" s="2"/>
-      <c r="R248" s="2"/>
-      <c r="S248" s="2"/>
-      <c r="T248" s="2"/>
-      <c r="U248" s="2" t="s">
+      <c r="N248" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O248" s="5"/>
+      <c r="P248" s="5"/>
+      <c r="Q248" s="5"/>
+      <c r="R248" s="5"/>
+      <c r="S248" s="5"/>
+      <c r="T248" s="5"/>
+      <c r="U248" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="V248" s="2" t="s">
+      <c r="V248" s="5" t="s">
         <v>826</v>
       </c>
     </row>
@@ -20123,9 +20045,7 @@
         <v>656</v>
       </c>
       <c r="K253" s="2"/>
-      <c r="L253" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L253" s="7"/>
       <c r="M253" s="2" t="s">
         <v>74</v>
       </c>
@@ -20179,9 +20099,7 @@
         <v>656</v>
       </c>
       <c r="K254" s="2"/>
-      <c r="L254" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L254" s="7"/>
       <c r="M254" s="2" t="s">
         <v>74</v>
       </c>
@@ -20235,9 +20153,7 @@
         <v>656</v>
       </c>
       <c r="K255" s="2"/>
-      <c r="L255" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L255" s="7"/>
       <c r="M255" s="2" t="s">
         <v>74</v>
       </c>
@@ -20291,9 +20207,7 @@
         <v>656</v>
       </c>
       <c r="K256" s="2"/>
-      <c r="L256" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L256" s="7"/>
       <c r="M256" s="2" t="s">
         <v>74</v>
       </c>
@@ -20320,46 +20234,44 @@
       <c r="V256" s="2"/>
     </row>
     <row r="257" spans="1:22">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2" t="s">
+      <c r="C257" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="K257" s="2" t="s">
+      <c r="K257" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="L257" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M257" s="2" t="s">
+      <c r="L257" s="7"/>
+      <c r="M257" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N257" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O257" s="2"/>
-      <c r="P257" s="2"/>
-      <c r="Q257" s="2"/>
-      <c r="R257" s="2"/>
-      <c r="S257" s="2"/>
-      <c r="T257" s="2"/>
-      <c r="U257" s="2" t="s">
+      <c r="N257" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O257" s="5"/>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="5"/>
+      <c r="R257" s="5"/>
+      <c r="S257" s="5"/>
+      <c r="T257" s="5"/>
+      <c r="U257" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="V257" s="2" t="s">
+      <c r="V257" s="5" t="s">
         <v>827</v>
       </c>
     </row>
@@ -20553,9 +20465,7 @@
         <v>656</v>
       </c>
       <c r="K261" s="2"/>
-      <c r="L261" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L261" s="7"/>
       <c r="M261" s="2" t="s">
         <v>75</v>
       </c>
@@ -20582,46 +20492,44 @@
       <c r="V261" s="2"/>
     </row>
     <row r="262" spans="1:22">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="5" t="s">
         <v>1398</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2" t="s">
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="K262" s="2" t="s">
+      <c r="K262" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="L262" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M262" s="2" t="s">
+      <c r="L262" s="7"/>
+      <c r="M262" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N262" s="2" t="s">
+      <c r="N262" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O262" s="2"/>
-      <c r="P262" s="2"/>
-      <c r="Q262" s="2"/>
-      <c r="R262" s="2"/>
-      <c r="S262" s="2"/>
-      <c r="T262" s="2"/>
-      <c r="U262" s="2" t="s">
+      <c r="O262" s="5"/>
+      <c r="P262" s="5"/>
+      <c r="Q262" s="5"/>
+      <c r="R262" s="5"/>
+      <c r="S262" s="5"/>
+      <c r="T262" s="5"/>
+      <c r="U262" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="V262" s="2" t="s">
+      <c r="V262" s="5" t="s">
         <v>828</v>
       </c>
     </row>
@@ -21112,46 +21020,44 @@
       <c r="V271" s="2"/>
     </row>
     <row r="272" spans="1:22">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="5" t="s">
         <v>1407</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2" t="s">
+      <c r="C272" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="K272" s="2" t="s">
+      <c r="K272" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="L272" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M272" s="2" t="s">
+      <c r="L272" s="7"/>
+      <c r="M272" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N272" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
-      <c r="Q272" s="2"/>
-      <c r="R272" s="2"/>
-      <c r="S272" s="2"/>
-      <c r="T272" s="2"/>
-      <c r="U272" s="2" t="s">
+      <c r="N272" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O272" s="5"/>
+      <c r="P272" s="5"/>
+      <c r="Q272" s="5"/>
+      <c r="R272" s="5"/>
+      <c r="S272" s="5"/>
+      <c r="T272" s="5"/>
+      <c r="U272" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="V272" s="2" t="s">
+      <c r="V272" s="5" t="s">
         <v>830</v>
       </c>
     </row>
@@ -21289,9 +21195,7 @@
       <c r="K275" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="L275" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L275" s="7"/>
       <c r="M275" s="2" t="s">
         <v>77</v>
       </c>
@@ -21378,44 +21282,42 @@
       </c>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2" t="s">
+      <c r="C277" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K277" s="2"/>
-      <c r="L277" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M277" s="2" t="s">
+      <c r="K277" s="5"/>
+      <c r="L277" s="7"/>
+      <c r="M277" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N277" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
-      <c r="Q277" s="2"/>
-      <c r="R277" s="2"/>
-      <c r="S277" s="2"/>
-      <c r="T277" s="2"/>
-      <c r="U277" s="2" t="s">
+      <c r="N277" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V277" s="2"/>
+      <c r="V277" s="5"/>
     </row>
     <row r="278" spans="1:22">
       <c r="A278" s="2" t="s">
@@ -21653,9 +21555,7 @@
         <v>706</v>
       </c>
       <c r="K282" s="2"/>
-      <c r="L282" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L282" s="7"/>
       <c r="M282" s="2" t="s">
         <v>79</v>
       </c>
@@ -21709,9 +21609,7 @@
         <v>707</v>
       </c>
       <c r="K283" s="2"/>
-      <c r="L283" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L283" s="7"/>
       <c r="M283" s="2" t="s">
         <v>79</v>
       </c>
@@ -21765,9 +21663,7 @@
         <v>708</v>
       </c>
       <c r="K284" s="2"/>
-      <c r="L284" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L284" s="7"/>
       <c r="M284" s="2" t="s">
         <v>79</v>
       </c>
@@ -21821,9 +21717,7 @@
         <v>709</v>
       </c>
       <c r="K285" s="2"/>
-      <c r="L285" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L285" s="7"/>
       <c r="M285" s="2" t="s">
         <v>79</v>
       </c>
@@ -21877,9 +21771,7 @@
         <v>710</v>
       </c>
       <c r="K286" s="2"/>
-      <c r="L286" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L286" s="7"/>
       <c r="M286" s="2" t="s">
         <v>79</v>
       </c>
@@ -21906,44 +21798,42 @@
       <c r="V286" s="2"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2" t="s">
+      <c r="C287" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K287" s="2"/>
-      <c r="L287" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M287" s="2" t="s">
+      <c r="K287" s="5"/>
+      <c r="L287" s="7"/>
+      <c r="M287" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N287" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
-      <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
-      <c r="S287" s="2"/>
-      <c r="T287" s="2"/>
-      <c r="U287" s="2" t="s">
+      <c r="N287" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V287" s="2"/>
+      <c r="V287" s="5"/>
     </row>
     <row r="288" spans="1:22">
       <c r="A288" s="2" t="s">
@@ -22181,9 +22071,7 @@
         <v>712</v>
       </c>
       <c r="K292" s="2"/>
-      <c r="L292" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L292" s="7"/>
       <c r="M292" s="2" t="s">
         <v>79</v>
       </c>
@@ -22237,9 +22125,7 @@
         <v>707</v>
       </c>
       <c r="K293" s="2"/>
-      <c r="L293" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L293" s="7"/>
       <c r="M293" s="2" t="s">
         <v>79</v>
       </c>
@@ -22293,9 +22179,7 @@
         <v>713</v>
       </c>
       <c r="K294" s="2"/>
-      <c r="L294" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L294" s="7"/>
       <c r="M294" s="2" t="s">
         <v>79</v>
       </c>
@@ -22349,9 +22233,7 @@
         <v>714</v>
       </c>
       <c r="K295" s="2"/>
-      <c r="L295" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L295" s="7"/>
       <c r="M295" s="2" t="s">
         <v>79</v>
       </c>
@@ -22405,9 +22287,7 @@
         <v>710</v>
       </c>
       <c r="K296" s="2"/>
-      <c r="L296" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L296" s="7"/>
       <c r="M296" s="2" t="s">
         <v>79</v>
       </c>
@@ -22434,46 +22314,44 @@
       <c r="V296" s="2"/>
     </row>
     <row r="297" spans="1:22">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-      <c r="J297" s="2" t="s">
+      <c r="C297" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="K297" s="2" t="s">
+      <c r="K297" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="L297" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M297" s="2" t="s">
+      <c r="L297" s="7"/>
+      <c r="M297" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N297" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
-      <c r="Q297" s="2"/>
-      <c r="R297" s="2"/>
-      <c r="S297" s="2"/>
-      <c r="T297" s="2"/>
-      <c r="U297" s="2" t="s">
+      <c r="N297" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="5"/>
+      <c r="T297" s="5"/>
+      <c r="U297" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="V297" s="2" t="s">
+      <c r="V297" s="5" t="s">
         <v>833</v>
       </c>
     </row>
@@ -22713,9 +22591,7 @@
         <v>685</v>
       </c>
       <c r="K302" s="2"/>
-      <c r="L302" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L302" s="7"/>
       <c r="M302" s="2" t="s">
         <v>79</v>
       </c>
@@ -22742,46 +22618,44 @@
       <c r="V302" s="2"/>
     </row>
     <row r="303" spans="1:22">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="5" t="s">
         <v>1437</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-      <c r="F303" s="2"/>
-      <c r="G303" s="2"/>
-      <c r="H303" s="2"/>
-      <c r="I303" s="2"/>
-      <c r="J303" s="2" t="s">
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="K303" s="2" t="s">
+      <c r="K303" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="L303" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M303" s="2" t="s">
+      <c r="L303" s="7"/>
+      <c r="M303" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N303" s="2" t="s">
+      <c r="N303" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O303" s="2"/>
-      <c r="P303" s="2"/>
-      <c r="Q303" s="2"/>
-      <c r="R303" s="2"/>
-      <c r="S303" s="2"/>
-      <c r="T303" s="2"/>
-      <c r="U303" s="2" t="s">
+      <c r="O303" s="5"/>
+      <c r="P303" s="5"/>
+      <c r="Q303" s="5"/>
+      <c r="R303" s="5"/>
+      <c r="S303" s="5"/>
+      <c r="T303" s="5"/>
+      <c r="U303" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="V303" s="2" t="s">
+      <c r="V303" s="5" t="s">
         <v>834</v>
       </c>
     </row>
@@ -23272,46 +23146,44 @@
       <c r="V312" s="2"/>
     </row>
     <row r="313" spans="1:22">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="5" t="s">
         <v>1446</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-      <c r="J313" s="2" t="s">
+      <c r="C313" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="K313" s="2" t="s">
+      <c r="K313" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="L313" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M313" s="2" t="s">
+      <c r="L313" s="7"/>
+      <c r="M313" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N313" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
-      <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
-      <c r="S313" s="2"/>
-      <c r="T313" s="2"/>
-      <c r="U313" s="2" t="s">
+      <c r="N313" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O313" s="5"/>
+      <c r="P313" s="5"/>
+      <c r="Q313" s="5"/>
+      <c r="R313" s="5"/>
+      <c r="S313" s="5"/>
+      <c r="T313" s="5"/>
+      <c r="U313" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="V313" s="2" t="s">
+      <c r="V313" s="5" t="s">
         <v>836</v>
       </c>
     </row>
@@ -23551,9 +23423,7 @@
         <v>656</v>
       </c>
       <c r="K318" s="2"/>
-      <c r="L318" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L318" s="7"/>
       <c r="M318" s="2" t="s">
         <v>84</v>
       </c>
@@ -23607,9 +23477,7 @@
         <v>656</v>
       </c>
       <c r="K319" s="2"/>
-      <c r="L319" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L319" s="7"/>
       <c r="M319" s="2" t="s">
         <v>84</v>
       </c>
@@ -23663,9 +23531,7 @@
         <v>656</v>
       </c>
       <c r="K320" s="2"/>
-      <c r="L320" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L320" s="7"/>
       <c r="M320" s="2" t="s">
         <v>84</v>
       </c>
@@ -23692,46 +23558,44 @@
       <c r="V320" s="2"/>
     </row>
     <row r="321" spans="1:22">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="5" t="s">
         <v>1454</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="F321" s="2"/>
-      <c r="G321" s="2"/>
-      <c r="H321" s="2"/>
-      <c r="I321" s="2"/>
-      <c r="J321" s="2" t="s">
+      <c r="C321" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="K321" s="2" t="s">
+      <c r="K321" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="L321" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M321" s="2" t="s">
+      <c r="L321" s="7"/>
+      <c r="M321" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N321" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O321" s="2"/>
-      <c r="P321" s="2"/>
-      <c r="Q321" s="2"/>
-      <c r="R321" s="2"/>
-      <c r="S321" s="2"/>
-      <c r="T321" s="2"/>
-      <c r="U321" s="2" t="s">
+      <c r="N321" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O321" s="5"/>
+      <c r="P321" s="5"/>
+      <c r="Q321" s="5"/>
+      <c r="R321" s="5"/>
+      <c r="S321" s="5"/>
+      <c r="T321" s="5"/>
+      <c r="U321" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="V321" s="2" t="s">
+      <c r="V321" s="5" t="s">
         <v>837</v>
       </c>
     </row>
@@ -24208,44 +24072,42 @@
       <c r="V332" s="9"/>
     </row>
     <row r="333" spans="1:22">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="5" t="s">
         <v>1466</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C333" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="F333" s="2"/>
-      <c r="G333" s="2"/>
-      <c r="H333" s="2"/>
-      <c r="I333" s="2"/>
-      <c r="J333" s="2" t="s">
+      <c r="C333" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="5"/>
+      <c r="J333" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K333" s="2"/>
-      <c r="L333" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M333" s="2" t="s">
+      <c r="K333" s="5"/>
+      <c r="L333" s="7"/>
+      <c r="M333" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N333" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O333" s="2"/>
-      <c r="P333" s="2"/>
-      <c r="Q333" s="2"/>
-      <c r="R333" s="2"/>
-      <c r="S333" s="2"/>
-      <c r="T333" s="2"/>
-      <c r="U333" s="2" t="s">
+      <c r="N333" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O333" s="5"/>
+      <c r="P333" s="5"/>
+      <c r="Q333" s="5"/>
+      <c r="R333" s="5"/>
+      <c r="S333" s="5"/>
+      <c r="T333" s="5"/>
+      <c r="U333" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V333" s="2"/>
+      <c r="V333" s="5"/>
     </row>
     <row r="334" spans="1:22">
       <c r="A334" s="2" t="s">
@@ -24483,9 +24345,7 @@
         <v>722</v>
       </c>
       <c r="K338" s="2"/>
-      <c r="L338" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L338" s="7"/>
       <c r="M338" s="2" t="s">
         <v>55</v>
       </c>
@@ -24539,9 +24399,7 @@
         <v>723</v>
       </c>
       <c r="K339" s="2"/>
-      <c r="L339" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L339" s="7"/>
       <c r="M339" s="2" t="s">
         <v>55</v>
       </c>
@@ -24595,9 +24453,7 @@
         <v>724</v>
       </c>
       <c r="K340" s="2"/>
-      <c r="L340" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L340" s="7"/>
       <c r="M340" s="2" t="s">
         <v>55</v>
       </c>
@@ -24651,9 +24507,7 @@
         <v>725</v>
       </c>
       <c r="K341" s="2"/>
-      <c r="L341" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L341" s="7"/>
       <c r="M341" s="2" t="s">
         <v>55</v>
       </c>
@@ -24707,9 +24561,7 @@
         <v>710</v>
       </c>
       <c r="K342" s="2"/>
-      <c r="L342" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L342" s="7"/>
       <c r="M342" s="2" t="s">
         <v>55</v>
       </c>
@@ -24736,44 +24588,42 @@
       <c r="V342" s="2"/>
     </row>
     <row r="343" spans="1:22">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
-      <c r="I343" s="2"/>
-      <c r="J343" s="2" t="s">
+      <c r="C343" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K343" s="2"/>
-      <c r="L343" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M343" s="2" t="s">
+      <c r="K343" s="5"/>
+      <c r="L343" s="7"/>
+      <c r="M343" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N343" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O343" s="2"/>
-      <c r="P343" s="2"/>
-      <c r="Q343" s="2"/>
-      <c r="R343" s="2"/>
-      <c r="S343" s="2"/>
-      <c r="T343" s="2"/>
-      <c r="U343" s="2" t="s">
+      <c r="N343" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O343" s="5"/>
+      <c r="P343" s="5"/>
+      <c r="Q343" s="5"/>
+      <c r="R343" s="5"/>
+      <c r="S343" s="5"/>
+      <c r="T343" s="5"/>
+      <c r="U343" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V343" s="2"/>
+      <c r="V343" s="5"/>
     </row>
     <row r="344" spans="1:22">
       <c r="A344" s="2" t="s">
@@ -25011,9 +24861,7 @@
         <v>727</v>
       </c>
       <c r="K348" s="2"/>
-      <c r="L348" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L348" s="7"/>
       <c r="M348" s="2" t="s">
         <v>55</v>
       </c>
@@ -25067,9 +24915,7 @@
         <v>723</v>
       </c>
       <c r="K349" s="2"/>
-      <c r="L349" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L349" s="7"/>
       <c r="M349" s="2" t="s">
         <v>55</v>
       </c>
@@ -25123,9 +24969,7 @@
         <v>728</v>
       </c>
       <c r="K350" s="2"/>
-      <c r="L350" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L350" s="7"/>
       <c r="M350" s="2" t="s">
         <v>55</v>
       </c>
@@ -25179,9 +25023,7 @@
         <v>729</v>
       </c>
       <c r="K351" s="2"/>
-      <c r="L351" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L351" s="7"/>
       <c r="M351" s="2" t="s">
         <v>55</v>
       </c>
@@ -25235,9 +25077,7 @@
         <v>710</v>
       </c>
       <c r="K352" s="2"/>
-      <c r="L352" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L352" s="7"/>
       <c r="M352" s="2" t="s">
         <v>55</v>
       </c>
@@ -25264,46 +25104,44 @@
       <c r="V352" s="2"/>
     </row>
     <row r="353" spans="1:22">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="5" t="s">
         <v>1486</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
-      <c r="F353" s="2"/>
-      <c r="G353" s="2"/>
-      <c r="H353" s="2"/>
-      <c r="I353" s="2"/>
-      <c r="J353" s="2" t="s">
+      <c r="C353" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="5"/>
+      <c r="J353" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="K353" s="2" t="s">
+      <c r="K353" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="L353" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M353" s="2" t="s">
+      <c r="L353" s="7"/>
+      <c r="M353" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N353" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O353" s="2"/>
-      <c r="P353" s="2"/>
-      <c r="Q353" s="2"/>
-      <c r="R353" s="2"/>
-      <c r="S353" s="2"/>
-      <c r="T353" s="2"/>
-      <c r="U353" s="2" t="s">
+      <c r="N353" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O353" s="5"/>
+      <c r="P353" s="5"/>
+      <c r="Q353" s="5"/>
+      <c r="R353" s="5"/>
+      <c r="S353" s="5"/>
+      <c r="T353" s="5"/>
+      <c r="U353" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="V353" s="2" t="s">
+      <c r="V353" s="5" t="s">
         <v>839</v>
       </c>
     </row>
@@ -25543,9 +25381,7 @@
         <v>685</v>
       </c>
       <c r="K358" s="2"/>
-      <c r="L358" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L358" s="7"/>
       <c r="M358" s="2" t="s">
         <v>55</v>
       </c>
@@ -25572,46 +25408,44 @@
       <c r="V358" s="2"/>
     </row>
     <row r="359" spans="1:22">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="5" t="s">
         <v>1492</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C359" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
-      <c r="H359" s="2"/>
-      <c r="I359" s="2"/>
-      <c r="J359" s="2" t="s">
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K359" s="2" t="s">
+      <c r="K359" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="L359" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M359" s="2" t="s">
+      <c r="L359" s="7"/>
+      <c r="M359" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N359" s="2" t="s">
+      <c r="N359" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O359" s="2"/>
-      <c r="P359" s="2"/>
-      <c r="Q359" s="2"/>
-      <c r="R359" s="2"/>
-      <c r="S359" s="2"/>
-      <c r="T359" s="2"/>
-      <c r="U359" s="2" t="s">
+      <c r="O359" s="5"/>
+      <c r="P359" s="5"/>
+      <c r="Q359" s="5"/>
+      <c r="R359" s="5"/>
+      <c r="S359" s="5"/>
+      <c r="T359" s="5"/>
+      <c r="U359" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V359" s="2" t="s">
+      <c r="V359" s="5" t="s">
         <v>840</v>
       </c>
     </row>
@@ -26098,44 +25932,42 @@
       <c r="V368" s="2"/>
     </row>
     <row r="369" spans="1:22">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="5" t="s">
         <v>1502</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="F369" s="2"/>
-      <c r="G369" s="2"/>
-      <c r="H369" s="2"/>
-      <c r="I369" s="2"/>
-      <c r="J369" s="2" t="s">
+      <c r="C369" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="5"/>
+      <c r="J369" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K369" s="2"/>
-      <c r="L369" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M369" s="2" t="s">
+      <c r="K369" s="5"/>
+      <c r="L369" s="7"/>
+      <c r="M369" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N369" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O369" s="2"/>
-      <c r="P369" s="2"/>
-      <c r="Q369" s="2"/>
-      <c r="R369" s="2"/>
-      <c r="S369" s="2"/>
-      <c r="T369" s="2"/>
-      <c r="U369" s="2" t="s">
+      <c r="N369" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O369" s="5"/>
+      <c r="P369" s="5"/>
+      <c r="Q369" s="5"/>
+      <c r="R369" s="5"/>
+      <c r="S369" s="5"/>
+      <c r="T369" s="5"/>
+      <c r="U369" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V369" s="2"/>
+      <c r="V369" s="5"/>
     </row>
     <row r="370" spans="1:22">
       <c r="A370" s="2" t="s">
@@ -33072,44 +32904,42 @@
       <c r="V537" s="9"/>
     </row>
     <row r="538" spans="1:22">
-      <c r="A538" s="2" t="s">
+      <c r="A538" s="5" t="s">
         <v>1671</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B538" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C538" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D538" s="2"/>
-      <c r="E538" s="2"/>
-      <c r="F538" s="2"/>
-      <c r="G538" s="2"/>
-      <c r="H538" s="2"/>
-      <c r="I538" s="2"/>
-      <c r="J538" s="2" t="s">
+      <c r="C538" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D538" s="5"/>
+      <c r="E538" s="5"/>
+      <c r="F538" s="5"/>
+      <c r="G538" s="5"/>
+      <c r="H538" s="5"/>
+      <c r="I538" s="5"/>
+      <c r="J538" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K538" s="2"/>
-      <c r="L538" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M538" s="2" t="s">
+      <c r="K538" s="5"/>
+      <c r="L538" s="7"/>
+      <c r="M538" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N538" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O538" s="2"/>
-      <c r="P538" s="2"/>
-      <c r="Q538" s="2"/>
-      <c r="R538" s="2"/>
-      <c r="S538" s="2"/>
-      <c r="T538" s="2"/>
-      <c r="U538" s="2" t="s">
+      <c r="N538" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O538" s="5"/>
+      <c r="P538" s="5"/>
+      <c r="Q538" s="5"/>
+      <c r="R538" s="5"/>
+      <c r="S538" s="5"/>
+      <c r="T538" s="5"/>
+      <c r="U538" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V538" s="2"/>
+      <c r="V538" s="5"/>
     </row>
     <row r="539" spans="1:22">
       <c r="A539" s="2" t="s">
@@ -33243,9 +33073,7 @@
         <v>659</v>
       </c>
       <c r="K541" s="2"/>
-      <c r="L541" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L541" s="7"/>
       <c r="M541" s="2" t="s">
         <v>60</v>
       </c>
@@ -34196,44 +34024,42 @@
       </c>
     </row>
     <row r="565" spans="1:22">
-      <c r="A565" s="2" t="s">
+      <c r="A565" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="B565" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C565" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D565" s="2"/>
-      <c r="E565" s="2"/>
-      <c r="F565" s="2"/>
-      <c r="G565" s="2"/>
-      <c r="H565" s="2"/>
-      <c r="I565" s="2"/>
-      <c r="J565" s="2" t="s">
+      <c r="C565" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D565" s="5"/>
+      <c r="E565" s="5"/>
+      <c r="F565" s="5"/>
+      <c r="G565" s="5"/>
+      <c r="H565" s="5"/>
+      <c r="I565" s="5"/>
+      <c r="J565" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K565" s="2"/>
-      <c r="L565" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M565" s="2" t="s">
+      <c r="K565" s="5"/>
+      <c r="L565" s="7"/>
+      <c r="M565" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N565" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O565" s="2"/>
-      <c r="P565" s="2"/>
-      <c r="Q565" s="2"/>
-      <c r="R565" s="2"/>
-      <c r="S565" s="2"/>
-      <c r="T565" s="2"/>
-      <c r="U565" s="2" t="s">
+      <c r="N565" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O565" s="5"/>
+      <c r="P565" s="5"/>
+      <c r="Q565" s="5"/>
+      <c r="R565" s="5"/>
+      <c r="S565" s="5"/>
+      <c r="T565" s="5"/>
+      <c r="U565" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V565" s="2"/>
+      <c r="V565" s="5"/>
     </row>
     <row r="566" spans="1:22">
       <c r="A566" s="2" t="s">
@@ -41018,44 +40844,42 @@
       <c r="V732" s="2"/>
     </row>
     <row r="733" spans="1:22">
-      <c r="A733" s="2" t="s">
+      <c r="A733" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="B733" s="2" t="s">
+      <c r="B733" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C733" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D733" s="2"/>
-      <c r="E733" s="2"/>
-      <c r="F733" s="2"/>
-      <c r="G733" s="2"/>
-      <c r="H733" s="2"/>
-      <c r="I733" s="2"/>
-      <c r="J733" s="2" t="s">
+      <c r="C733" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D733" s="5"/>
+      <c r="E733" s="5"/>
+      <c r="F733" s="5"/>
+      <c r="G733" s="5"/>
+      <c r="H733" s="5"/>
+      <c r="I733" s="5"/>
+      <c r="J733" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K733" s="2"/>
-      <c r="L733" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M733" s="2" t="s">
+      <c r="K733" s="5"/>
+      <c r="L733" s="7"/>
+      <c r="M733" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N733" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O733" s="2"/>
-      <c r="P733" s="2"/>
-      <c r="Q733" s="2"/>
-      <c r="R733" s="2"/>
-      <c r="S733" s="2"/>
-      <c r="T733" s="2"/>
-      <c r="U733" s="2" t="s">
+      <c r="N733" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O733" s="5"/>
+      <c r="P733" s="5"/>
+      <c r="Q733" s="5"/>
+      <c r="R733" s="5"/>
+      <c r="S733" s="5"/>
+      <c r="T733" s="5"/>
+      <c r="U733" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V733" s="2"/>
+      <c r="V733" s="5"/>
     </row>
     <row r="734" spans="1:22">
       <c r="A734" s="2" t="s">
@@ -41293,9 +41117,7 @@
         <v>656</v>
       </c>
       <c r="K738" s="2"/>
-      <c r="L738" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L738" s="7"/>
       <c r="M738" s="2" t="s">
         <v>124</v>
       </c>
@@ -41349,9 +41171,7 @@
         <v>656</v>
       </c>
       <c r="K739" s="2"/>
-      <c r="L739" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L739" s="7"/>
       <c r="M739" s="2" t="s">
         <v>124</v>
       </c>
@@ -41405,9 +41225,7 @@
         <v>656</v>
       </c>
       <c r="K740" s="2"/>
-      <c r="L740" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L740" s="7"/>
       <c r="M740" s="2" t="s">
         <v>124</v>
       </c>
@@ -41434,44 +41252,42 @@
       <c r="V740" s="2"/>
     </row>
     <row r="741" spans="1:22">
-      <c r="A741" s="2" t="s">
+      <c r="A741" s="5" t="s">
         <v>1874</v>
       </c>
-      <c r="B741" s="2" t="s">
+      <c r="B741" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C741" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D741" s="2"/>
-      <c r="E741" s="2"/>
-      <c r="F741" s="2"/>
-      <c r="G741" s="2"/>
-      <c r="H741" s="2"/>
-      <c r="I741" s="2"/>
-      <c r="J741" s="2" t="s">
+      <c r="C741" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D741" s="5"/>
+      <c r="E741" s="5"/>
+      <c r="F741" s="5"/>
+      <c r="G741" s="5"/>
+      <c r="H741" s="5"/>
+      <c r="I741" s="5"/>
+      <c r="J741" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K741" s="2"/>
-      <c r="L741" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M741" s="2" t="s">
+      <c r="K741" s="5"/>
+      <c r="L741" s="7"/>
+      <c r="M741" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="N741" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O741" s="2"/>
-      <c r="P741" s="2"/>
-      <c r="Q741" s="2"/>
-      <c r="R741" s="2"/>
-      <c r="S741" s="2"/>
-      <c r="T741" s="2"/>
-      <c r="U741" s="2" t="s">
+      <c r="N741" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O741" s="5"/>
+      <c r="P741" s="5"/>
+      <c r="Q741" s="5"/>
+      <c r="R741" s="5"/>
+      <c r="S741" s="5"/>
+      <c r="T741" s="5"/>
+      <c r="U741" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V741" s="2"/>
+      <c r="V741" s="5"/>
     </row>
     <row r="742" spans="1:22">
       <c r="A742" s="2" t="s">
@@ -41665,9 +41481,7 @@
       <c r="K745" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="L745" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L745" s="7"/>
       <c r="M745" s="2" t="s">
         <v>125</v>
       </c>
@@ -41696,46 +41510,44 @@
       </c>
     </row>
     <row r="746" spans="1:22">
-      <c r="A746" s="2" t="s">
+      <c r="A746" s="5" t="s">
         <v>1879</v>
       </c>
-      <c r="B746" s="2" t="s">
+      <c r="B746" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C746" s="2" t="s">
+      <c r="C746" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D746" s="2"/>
-      <c r="E746" s="2"/>
-      <c r="F746" s="2"/>
-      <c r="G746" s="2"/>
-      <c r="H746" s="2"/>
-      <c r="I746" s="2"/>
-      <c r="J746" s="2" t="s">
+      <c r="D746" s="5"/>
+      <c r="E746" s="5"/>
+      <c r="F746" s="5"/>
+      <c r="G746" s="5"/>
+      <c r="H746" s="5"/>
+      <c r="I746" s="5"/>
+      <c r="J746" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="K746" s="2" t="s">
+      <c r="K746" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="L746" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M746" s="2" t="s">
+      <c r="L746" s="7"/>
+      <c r="M746" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="N746" s="2" t="s">
+      <c r="N746" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O746" s="2"/>
-      <c r="P746" s="2"/>
-      <c r="Q746" s="2"/>
-      <c r="R746" s="2"/>
-      <c r="S746" s="2"/>
-      <c r="T746" s="2"/>
-      <c r="U746" s="2" t="s">
+      <c r="O746" s="5"/>
+      <c r="P746" s="5"/>
+      <c r="Q746" s="5"/>
+      <c r="R746" s="5"/>
+      <c r="S746" s="5"/>
+      <c r="T746" s="5"/>
+      <c r="U746" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="V746" s="2" t="s">
+      <c r="V746" s="5" t="s">
         <v>863</v>
       </c>
     </row>
@@ -42392,44 +42204,42 @@
       <c r="V758" s="2"/>
     </row>
     <row r="759" spans="1:22">
-      <c r="A759" s="2" t="s">
+      <c r="A759" s="5" t="s">
         <v>1891</v>
       </c>
-      <c r="B759" s="2" t="s">
+      <c r="B759" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C759" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D759" s="2"/>
-      <c r="E759" s="2"/>
-      <c r="F759" s="2"/>
-      <c r="G759" s="2"/>
-      <c r="H759" s="2"/>
-      <c r="I759" s="2"/>
-      <c r="J759" s="2" t="s">
+      <c r="C759" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D759" s="5"/>
+      <c r="E759" s="5"/>
+      <c r="F759" s="5"/>
+      <c r="G759" s="5"/>
+      <c r="H759" s="5"/>
+      <c r="I759" s="5"/>
+      <c r="J759" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K759" s="2"/>
-      <c r="L759" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M759" s="2" t="s">
+      <c r="K759" s="5"/>
+      <c r="L759" s="7"/>
+      <c r="M759" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N759" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O759" s="2"/>
-      <c r="P759" s="2"/>
-      <c r="Q759" s="2"/>
-      <c r="R759" s="2"/>
-      <c r="S759" s="2"/>
-      <c r="T759" s="2"/>
-      <c r="U759" s="2" t="s">
+      <c r="N759" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O759" s="5"/>
+      <c r="P759" s="5"/>
+      <c r="Q759" s="5"/>
+      <c r="R759" s="5"/>
+      <c r="S759" s="5"/>
+      <c r="T759" s="5"/>
+      <c r="U759" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V759" s="2"/>
+      <c r="V759" s="5"/>
     </row>
     <row r="760" spans="1:22">
       <c r="A760" s="2" t="s">
@@ -42725,9 +42535,7 @@
         <v>656</v>
       </c>
       <c r="K765" s="2"/>
-      <c r="L765" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L765" s="7"/>
       <c r="M765" s="2" t="s">
         <v>130</v>
       </c>
@@ -42943,9 +42751,7 @@
         <v>656</v>
       </c>
       <c r="K769" s="2"/>
-      <c r="L769" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L769" s="7"/>
       <c r="M769" s="2" t="s">
         <v>131</v>
       </c>
@@ -42972,46 +42778,44 @@
       <c r="V769" s="2"/>
     </row>
     <row r="770" spans="1:22">
-      <c r="A770" s="2" t="s">
+      <c r="A770" s="5" t="s">
         <v>1902</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="B770" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C770" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D770" s="2"/>
-      <c r="E770" s="2"/>
-      <c r="F770" s="2"/>
-      <c r="G770" s="2"/>
-      <c r="H770" s="2"/>
-      <c r="I770" s="2"/>
-      <c r="J770" s="2" t="s">
+      <c r="C770" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D770" s="5"/>
+      <c r="E770" s="5"/>
+      <c r="F770" s="5"/>
+      <c r="G770" s="5"/>
+      <c r="H770" s="5"/>
+      <c r="I770" s="5"/>
+      <c r="J770" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="K770" s="2" t="s">
+      <c r="K770" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="L770" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M770" s="2" t="s">
+      <c r="L770" s="7"/>
+      <c r="M770" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N770" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O770" s="2"/>
-      <c r="P770" s="2"/>
-      <c r="Q770" s="2"/>
-      <c r="R770" s="2"/>
-      <c r="S770" s="2"/>
-      <c r="T770" s="2"/>
-      <c r="U770" s="2" t="s">
+      <c r="N770" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O770" s="5"/>
+      <c r="P770" s="5"/>
+      <c r="Q770" s="5"/>
+      <c r="R770" s="5"/>
+      <c r="S770" s="5"/>
+      <c r="T770" s="5"/>
+      <c r="U770" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="V770" s="2" t="s">
+      <c r="V770" s="5" t="s">
         <v>864</v>
       </c>
     </row>
@@ -43149,9 +42953,7 @@
       <c r="K773" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="L773" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L773" s="7"/>
       <c r="M773" s="2" t="s">
         <v>77</v>
       </c>
@@ -43238,46 +43040,44 @@
       </c>
     </row>
     <row r="775" spans="1:22">
-      <c r="A775" s="2" t="s">
+      <c r="A775" s="5" t="s">
         <v>1907</v>
       </c>
-      <c r="B775" s="2" t="s">
+      <c r="B775" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C775" s="2" t="s">
+      <c r="C775" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D775" s="2"/>
-      <c r="E775" s="2"/>
-      <c r="F775" s="2"/>
-      <c r="G775" s="2"/>
-      <c r="H775" s="2"/>
-      <c r="I775" s="2"/>
-      <c r="J775" s="2" t="s">
+      <c r="D775" s="5"/>
+      <c r="E775" s="5"/>
+      <c r="F775" s="5"/>
+      <c r="G775" s="5"/>
+      <c r="H775" s="5"/>
+      <c r="I775" s="5"/>
+      <c r="J775" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="K775" s="2" t="s">
+      <c r="K775" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="L775" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M775" s="2" t="s">
+      <c r="L775" s="7"/>
+      <c r="M775" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="N775" s="2" t="s">
+      <c r="N775" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O775" s="2"/>
-      <c r="P775" s="2"/>
-      <c r="Q775" s="2"/>
-      <c r="R775" s="2"/>
-      <c r="S775" s="2"/>
-      <c r="T775" s="2"/>
-      <c r="U775" s="2" t="s">
+      <c r="O775" s="5"/>
+      <c r="P775" s="5"/>
+      <c r="Q775" s="5"/>
+      <c r="R775" s="5"/>
+      <c r="S775" s="5"/>
+      <c r="T775" s="5"/>
+      <c r="U775" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="V775" s="2" t="s">
+      <c r="V775" s="5" t="s">
         <v>866</v>
       </c>
     </row>
@@ -43710,44 +43510,42 @@
       <c r="V783" s="2"/>
     </row>
     <row r="784" spans="1:22">
-      <c r="A784" s="2" t="s">
+      <c r="A784" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="B784" s="2" t="s">
+      <c r="B784" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C784" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D784" s="2"/>
-      <c r="E784" s="2"/>
-      <c r="F784" s="2"/>
-      <c r="G784" s="2"/>
-      <c r="H784" s="2"/>
-      <c r="I784" s="2"/>
-      <c r="J784" s="2" t="s">
+      <c r="C784" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D784" s="5"/>
+      <c r="E784" s="5"/>
+      <c r="F784" s="5"/>
+      <c r="G784" s="5"/>
+      <c r="H784" s="5"/>
+      <c r="I784" s="5"/>
+      <c r="J784" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K784" s="2"/>
-      <c r="L784" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M784" s="2" t="s">
+      <c r="K784" s="5"/>
+      <c r="L784" s="7"/>
+      <c r="M784" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N784" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O784" s="2"/>
-      <c r="P784" s="2"/>
-      <c r="Q784" s="2"/>
-      <c r="R784" s="2"/>
-      <c r="S784" s="2"/>
-      <c r="T784" s="2"/>
-      <c r="U784" s="2" t="s">
+      <c r="N784" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O784" s="5"/>
+      <c r="P784" s="5"/>
+      <c r="Q784" s="5"/>
+      <c r="R784" s="5"/>
+      <c r="S784" s="5"/>
+      <c r="T784" s="5"/>
+      <c r="U784" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V784" s="2"/>
+      <c r="V784" s="5"/>
     </row>
     <row r="785" spans="1:22">
       <c r="A785" s="2" t="s">
@@ -43985,9 +43783,7 @@
         <v>656</v>
       </c>
       <c r="K789" s="2"/>
-      <c r="L789" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L789" s="7"/>
       <c r="M789" s="2" t="s">
         <v>134</v>
       </c>
@@ -44041,9 +43837,7 @@
         <v>656</v>
       </c>
       <c r="K790" s="2"/>
-      <c r="L790" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L790" s="7"/>
       <c r="M790" s="2" t="s">
         <v>134</v>
       </c>
@@ -44097,9 +43891,7 @@
         <v>656</v>
       </c>
       <c r="K791" s="2"/>
-      <c r="L791" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L791" s="7"/>
       <c r="M791" s="2" t="s">
         <v>134</v>
       </c>
@@ -44153,9 +43945,7 @@
         <v>656</v>
       </c>
       <c r="K792" s="2"/>
-      <c r="L792" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L792" s="7"/>
       <c r="M792" s="2" t="s">
         <v>134</v>
       </c>
@@ -44209,9 +43999,7 @@
         <v>656</v>
       </c>
       <c r="K793" s="2"/>
-      <c r="L793" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L793" s="7"/>
       <c r="M793" s="2" t="s">
         <v>134</v>
       </c>
@@ -44265,9 +44053,7 @@
         <v>656</v>
       </c>
       <c r="K794" s="2"/>
-      <c r="L794" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L794" s="7"/>
       <c r="M794" s="2" t="s">
         <v>134</v>
       </c>
@@ -44379,9 +44165,7 @@
         <v>759</v>
       </c>
       <c r="K796" s="2"/>
-      <c r="L796" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L796" s="7"/>
       <c r="M796" s="2" t="s">
         <v>134</v>
       </c>
@@ -44435,9 +44219,7 @@
         <v>759</v>
       </c>
       <c r="K797" s="2"/>
-      <c r="L797" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L797" s="7"/>
       <c r="M797" s="2" t="s">
         <v>134</v>
       </c>
@@ -44491,9 +44273,7 @@
         <v>760</v>
       </c>
       <c r="K798" s="2"/>
-      <c r="L798" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L798" s="7"/>
       <c r="M798" s="2" t="s">
         <v>134</v>
       </c>
@@ -44549,9 +44329,7 @@
       <c r="K799" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="L799" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L799" s="7"/>
       <c r="M799" s="2" t="s">
         <v>134</v>
       </c>
@@ -44873,9 +44651,7 @@
         <v>656</v>
       </c>
       <c r="K805" s="2"/>
-      <c r="L805" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L805" s="7"/>
       <c r="M805" s="2" t="s">
         <v>136</v>
       </c>
@@ -44929,9 +44705,7 @@
         <v>656</v>
       </c>
       <c r="K806" s="2"/>
-      <c r="L806" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L806" s="7"/>
       <c r="M806" s="2" t="s">
         <v>136</v>
       </c>
@@ -45089,9 +44863,7 @@
         <v>656</v>
       </c>
       <c r="K809" s="2"/>
-      <c r="L809" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L809" s="7"/>
       <c r="M809" s="2" t="s">
         <v>137</v>
       </c>
@@ -45307,9 +45079,7 @@
         <v>656</v>
       </c>
       <c r="K813" s="2"/>
-      <c r="L813" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L813" s="7"/>
       <c r="M813" s="2" t="s">
         <v>138</v>
       </c>
@@ -45336,44 +45106,42 @@
       <c r="V813" s="2"/>
     </row>
     <row r="814" spans="1:22">
-      <c r="A814" s="2" t="s">
+      <c r="A814" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="B814" s="2" t="s">
+      <c r="B814" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C814" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D814" s="2"/>
-      <c r="E814" s="2"/>
-      <c r="F814" s="2"/>
-      <c r="G814" s="2"/>
-      <c r="H814" s="2"/>
-      <c r="I814" s="2"/>
-      <c r="J814" s="2" t="s">
+      <c r="C814" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D814" s="5"/>
+      <c r="E814" s="5"/>
+      <c r="F814" s="5"/>
+      <c r="G814" s="5"/>
+      <c r="H814" s="5"/>
+      <c r="I814" s="5"/>
+      <c r="J814" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K814" s="2"/>
-      <c r="L814" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M814" s="2" t="s">
+      <c r="K814" s="5"/>
+      <c r="L814" s="7"/>
+      <c r="M814" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="N814" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O814" s="2"/>
-      <c r="P814" s="2"/>
-      <c r="Q814" s="2"/>
-      <c r="R814" s="2"/>
-      <c r="S814" s="2"/>
-      <c r="T814" s="2"/>
-      <c r="U814" s="2" t="s">
+      <c r="N814" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O814" s="5"/>
+      <c r="P814" s="5"/>
+      <c r="Q814" s="5"/>
+      <c r="R814" s="5"/>
+      <c r="S814" s="5"/>
+      <c r="T814" s="5"/>
+      <c r="U814" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V814" s="2"/>
+      <c r="V814" s="5"/>
     </row>
     <row r="815" spans="1:22">
       <c r="A815" s="2" t="s">
@@ -45611,9 +45379,7 @@
         <v>656</v>
       </c>
       <c r="K819" s="2"/>
-      <c r="L819" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L819" s="7"/>
       <c r="M819" s="2" t="s">
         <v>139</v>
       </c>
@@ -45667,9 +45433,7 @@
         <v>656</v>
       </c>
       <c r="K820" s="2"/>
-      <c r="L820" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L820" s="7"/>
       <c r="M820" s="2" t="s">
         <v>139</v>
       </c>
@@ -45696,46 +45460,44 @@
       <c r="V820" s="2"/>
     </row>
     <row r="821" spans="1:22">
-      <c r="A821" s="2" t="s">
+      <c r="A821" s="5" t="s">
         <v>1953</v>
       </c>
-      <c r="B821" s="2" t="s">
+      <c r="B821" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C821" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D821" s="2"/>
-      <c r="E821" s="2"/>
-      <c r="F821" s="2"/>
-      <c r="G821" s="2"/>
-      <c r="H821" s="2"/>
-      <c r="I821" s="2"/>
-      <c r="J821" s="2" t="s">
+      <c r="C821" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D821" s="5"/>
+      <c r="E821" s="5"/>
+      <c r="F821" s="5"/>
+      <c r="G821" s="5"/>
+      <c r="H821" s="5"/>
+      <c r="I821" s="5"/>
+      <c r="J821" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="K821" s="2" t="s">
+      <c r="K821" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="L821" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M821" s="2" t="s">
+      <c r="L821" s="7"/>
+      <c r="M821" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N821" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O821" s="2"/>
-      <c r="P821" s="2"/>
-      <c r="Q821" s="2"/>
-      <c r="R821" s="2"/>
-      <c r="S821" s="2"/>
-      <c r="T821" s="2"/>
-      <c r="U821" s="2" t="s">
+      <c r="N821" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O821" s="5"/>
+      <c r="P821" s="5"/>
+      <c r="Q821" s="5"/>
+      <c r="R821" s="5"/>
+      <c r="S821" s="5"/>
+      <c r="T821" s="5"/>
+      <c r="U821" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="V821" s="2" t="s">
+      <c r="V821" s="5" t="s">
         <v>870</v>
       </c>
     </row>
@@ -45975,9 +45737,7 @@
         <v>656</v>
       </c>
       <c r="K826" s="2"/>
-      <c r="L826" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L826" s="7"/>
       <c r="M826" s="2" t="s">
         <v>140</v>
       </c>
@@ -46004,46 +45764,44 @@
       <c r="V826" s="2"/>
     </row>
     <row r="827" spans="1:22">
-      <c r="A827" s="2" t="s">
+      <c r="A827" s="5" t="s">
         <v>1959</v>
       </c>
-      <c r="B827" s="2" t="s">
+      <c r="B827" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C827" s="2" t="s">
+      <c r="C827" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D827" s="2"/>
-      <c r="E827" s="2"/>
-      <c r="F827" s="2"/>
-      <c r="G827" s="2"/>
-      <c r="H827" s="2"/>
-      <c r="I827" s="2"/>
-      <c r="J827" s="2" t="s">
+      <c r="D827" s="5"/>
+      <c r="E827" s="5"/>
+      <c r="F827" s="5"/>
+      <c r="G827" s="5"/>
+      <c r="H827" s="5"/>
+      <c r="I827" s="5"/>
+      <c r="J827" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="K827" s="2" t="s">
+      <c r="K827" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="L827" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M827" s="2" t="s">
+      <c r="L827" s="7"/>
+      <c r="M827" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N827" s="2" t="s">
+      <c r="N827" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O827" s="2"/>
-      <c r="P827" s="2"/>
-      <c r="Q827" s="2"/>
-      <c r="R827" s="2"/>
-      <c r="S827" s="2"/>
-      <c r="T827" s="2"/>
-      <c r="U827" s="2" t="s">
+      <c r="O827" s="5"/>
+      <c r="P827" s="5"/>
+      <c r="Q827" s="5"/>
+      <c r="R827" s="5"/>
+      <c r="S827" s="5"/>
+      <c r="T827" s="5"/>
+      <c r="U827" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="V827" s="2" t="s">
+      <c r="V827" s="5" t="s">
         <v>871</v>
       </c>
     </row>
@@ -46289,9 +46047,7 @@
       <c r="K832" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="L832" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L832" s="7"/>
       <c r="M832" s="2" t="s">
         <v>142</v>
       </c>
@@ -47084,46 +46840,44 @@
       <c r="V846" s="2"/>
     </row>
     <row r="847" spans="1:22">
-      <c r="A847" s="2" t="s">
+      <c r="A847" s="5" t="s">
         <v>1979</v>
       </c>
-      <c r="B847" s="2" t="s">
+      <c r="B847" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C847" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D847" s="2"/>
-      <c r="E847" s="2"/>
-      <c r="F847" s="2"/>
-      <c r="G847" s="2"/>
-      <c r="H847" s="2"/>
-      <c r="I847" s="2"/>
-      <c r="J847" s="2" t="s">
+      <c r="C847" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D847" s="5"/>
+      <c r="E847" s="5"/>
+      <c r="F847" s="5"/>
+      <c r="G847" s="5"/>
+      <c r="H847" s="5"/>
+      <c r="I847" s="5"/>
+      <c r="J847" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="K847" s="2" t="s">
+      <c r="K847" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="L847" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M847" s="2" t="s">
+      <c r="L847" s="7"/>
+      <c r="M847" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N847" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O847" s="2"/>
-      <c r="P847" s="2"/>
-      <c r="Q847" s="2"/>
-      <c r="R847" s="2"/>
-      <c r="S847" s="2"/>
-      <c r="T847" s="2"/>
-      <c r="U847" s="2" t="s">
+      <c r="N847" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O847" s="5"/>
+      <c r="P847" s="5"/>
+      <c r="Q847" s="5"/>
+      <c r="R847" s="5"/>
+      <c r="S847" s="5"/>
+      <c r="T847" s="5"/>
+      <c r="U847" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="V847" s="2" t="s">
+      <c r="V847" s="5" t="s">
         <v>877</v>
       </c>
     </row>
@@ -47363,9 +47117,7 @@
         <v>656</v>
       </c>
       <c r="K852" s="2"/>
-      <c r="L852" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L852" s="7"/>
       <c r="M852" s="2" t="s">
         <v>84</v>
       </c>
@@ -47419,9 +47171,7 @@
         <v>656</v>
       </c>
       <c r="K853" s="2"/>
-      <c r="L853" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L853" s="7"/>
       <c r="M853" s="2" t="s">
         <v>84</v>
       </c>
@@ -47475,9 +47225,7 @@
         <v>656</v>
       </c>
       <c r="K854" s="2"/>
-      <c r="L854" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L854" s="7"/>
       <c r="M854" s="2" t="s">
         <v>84</v>
       </c>
@@ -47504,46 +47252,44 @@
       <c r="V854" s="2"/>
     </row>
     <row r="855" spans="1:22">
-      <c r="A855" s="2" t="s">
+      <c r="A855" s="5" t="s">
         <v>1987</v>
       </c>
-      <c r="B855" s="2" t="s">
+      <c r="B855" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C855" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D855" s="2"/>
-      <c r="E855" s="2"/>
-      <c r="F855" s="2"/>
-      <c r="G855" s="2"/>
-      <c r="H855" s="2"/>
-      <c r="I855" s="2"/>
-      <c r="J855" s="2" t="s">
+      <c r="C855" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D855" s="5"/>
+      <c r="E855" s="5"/>
+      <c r="F855" s="5"/>
+      <c r="G855" s="5"/>
+      <c r="H855" s="5"/>
+      <c r="I855" s="5"/>
+      <c r="J855" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="K855" s="2" t="s">
+      <c r="K855" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="L855" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M855" s="2" t="s">
+      <c r="L855" s="7"/>
+      <c r="M855" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N855" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O855" s="2"/>
-      <c r="P855" s="2"/>
-      <c r="Q855" s="2"/>
-      <c r="R855" s="2"/>
-      <c r="S855" s="2"/>
-      <c r="T855" s="2"/>
-      <c r="U855" s="2" t="s">
+      <c r="N855" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O855" s="5"/>
+      <c r="P855" s="5"/>
+      <c r="Q855" s="5"/>
+      <c r="R855" s="5"/>
+      <c r="S855" s="5"/>
+      <c r="T855" s="5"/>
+      <c r="U855" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="V855" s="2" t="s">
+      <c r="V855" s="5" t="s">
         <v>878</v>
       </c>
     </row>
@@ -47864,46 +47610,44 @@
       <c r="V861" s="2"/>
     </row>
     <row r="862" spans="1:22">
-      <c r="A862" s="2" t="s">
+      <c r="A862" s="5" t="s">
         <v>1994</v>
       </c>
-      <c r="B862" s="2" t="s">
+      <c r="B862" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C862" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D862" s="2"/>
-      <c r="E862" s="2"/>
-      <c r="F862" s="2"/>
-      <c r="G862" s="2"/>
-      <c r="H862" s="2"/>
-      <c r="I862" s="2"/>
-      <c r="J862" s="2" t="s">
+      <c r="C862" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D862" s="5"/>
+      <c r="E862" s="5"/>
+      <c r="F862" s="5"/>
+      <c r="G862" s="5"/>
+      <c r="H862" s="5"/>
+      <c r="I862" s="5"/>
+      <c r="J862" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="K862" s="2" t="s">
+      <c r="K862" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="L862" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M862" s="2" t="s">
+      <c r="L862" s="7"/>
+      <c r="M862" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="N862" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O862" s="2"/>
-      <c r="P862" s="2"/>
-      <c r="Q862" s="2"/>
-      <c r="R862" s="2"/>
-      <c r="S862" s="2"/>
-      <c r="T862" s="2"/>
-      <c r="U862" s="2" t="s">
+      <c r="N862" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O862" s="5"/>
+      <c r="P862" s="5"/>
+      <c r="Q862" s="5"/>
+      <c r="R862" s="5"/>
+      <c r="S862" s="5"/>
+      <c r="T862" s="5"/>
+      <c r="U862" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="V862" s="2" t="s">
+      <c r="V862" s="5" t="s">
         <v>879</v>
       </c>
     </row>
@@ -48066,46 +47810,44 @@
       <c r="V865" s="2"/>
     </row>
     <row r="866" spans="1:22">
-      <c r="A866" s="2" t="s">
+      <c r="A866" s="5" t="s">
         <v>1998</v>
       </c>
-      <c r="B866" s="2" t="s">
+      <c r="B866" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C866" s="2" t="s">
+      <c r="C866" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D866" s="2"/>
-      <c r="E866" s="2"/>
-      <c r="F866" s="2"/>
-      <c r="G866" s="2"/>
-      <c r="H866" s="2"/>
-      <c r="I866" s="2"/>
-      <c r="J866" s="2" t="s">
+      <c r="D866" s="5"/>
+      <c r="E866" s="5"/>
+      <c r="F866" s="5"/>
+      <c r="G866" s="5"/>
+      <c r="H866" s="5"/>
+      <c r="I866" s="5"/>
+      <c r="J866" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="K866" s="2" t="s">
+      <c r="K866" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="L866" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M866" s="2" t="s">
+      <c r="L866" s="7"/>
+      <c r="M866" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N866" s="2" t="s">
+      <c r="N866" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O866" s="2"/>
-      <c r="P866" s="2"/>
-      <c r="Q866" s="2"/>
-      <c r="R866" s="2"/>
-      <c r="S866" s="2"/>
-      <c r="T866" s="2"/>
-      <c r="U866" s="2" t="s">
+      <c r="O866" s="5"/>
+      <c r="P866" s="5"/>
+      <c r="Q866" s="5"/>
+      <c r="R866" s="5"/>
+      <c r="S866" s="5"/>
+      <c r="T866" s="5"/>
+      <c r="U866" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="V866" s="2" t="s">
+      <c r="V866" s="5" t="s">
         <v>880</v>
       </c>
     </row>
@@ -48372,44 +48114,42 @@
       <c r="V871" s="2"/>
     </row>
     <row r="872" spans="1:22">
-      <c r="A872" s="2" t="s">
+      <c r="A872" s="5" t="s">
         <v>2004</v>
       </c>
-      <c r="B872" s="2" t="s">
+      <c r="B872" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C872" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D872" s="2"/>
-      <c r="E872" s="2"/>
-      <c r="F872" s="2"/>
-      <c r="G872" s="2"/>
-      <c r="H872" s="2"/>
-      <c r="I872" s="2"/>
-      <c r="J872" s="2" t="s">
+      <c r="C872" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D872" s="5"/>
+      <c r="E872" s="5"/>
+      <c r="F872" s="5"/>
+      <c r="G872" s="5"/>
+      <c r="H872" s="5"/>
+      <c r="I872" s="5"/>
+      <c r="J872" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K872" s="2"/>
-      <c r="L872" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M872" s="2" t="s">
+      <c r="K872" s="5"/>
+      <c r="L872" s="7"/>
+      <c r="M872" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="N872" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O872" s="2"/>
-      <c r="P872" s="2"/>
-      <c r="Q872" s="2"/>
-      <c r="R872" s="2"/>
-      <c r="S872" s="2"/>
-      <c r="T872" s="2"/>
-      <c r="U872" s="2" t="s">
+      <c r="N872" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O872" s="5"/>
+      <c r="P872" s="5"/>
+      <c r="Q872" s="5"/>
+      <c r="R872" s="5"/>
+      <c r="S872" s="5"/>
+      <c r="T872" s="5"/>
+      <c r="U872" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V872" s="2"/>
+      <c r="V872" s="5"/>
     </row>
     <row r="873" spans="1:22">
       <c r="A873" s="2" t="s">
@@ -48809,9 +48549,7 @@
         <v>656</v>
       </c>
       <c r="K880" s="2"/>
-      <c r="L880" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L880" s="7"/>
       <c r="M880" s="2" t="s">
         <v>149</v>
       </c>
@@ -48865,9 +48603,7 @@
         <v>656</v>
       </c>
       <c r="K881" s="2"/>
-      <c r="L881" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L881" s="7"/>
       <c r="M881" s="2" t="s">
         <v>149</v>
       </c>
@@ -48921,9 +48657,7 @@
         <v>656</v>
       </c>
       <c r="K882" s="2"/>
-      <c r="L882" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L882" s="7"/>
       <c r="M882" s="2" t="s">
         <v>149</v>
       </c>
@@ -49008,46 +48742,44 @@
       </c>
     </row>
     <row r="884" spans="1:22">
-      <c r="A884" s="2" t="s">
+      <c r="A884" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="B884" s="2" t="s">
+      <c r="B884" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C884" s="2" t="s">
+      <c r="C884" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D884" s="2"/>
-      <c r="E884" s="2"/>
-      <c r="F884" s="2"/>
-      <c r="G884" s="2"/>
-      <c r="H884" s="2"/>
-      <c r="I884" s="2"/>
-      <c r="J884" s="2" t="s">
+      <c r="D884" s="5"/>
+      <c r="E884" s="5"/>
+      <c r="F884" s="5"/>
+      <c r="G884" s="5"/>
+      <c r="H884" s="5"/>
+      <c r="I884" s="5"/>
+      <c r="J884" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="K884" s="2" t="s">
+      <c r="K884" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="L884" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M884" s="2" t="s">
+      <c r="L884" s="7"/>
+      <c r="M884" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N884" s="2" t="s">
+      <c r="N884" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O884" s="2"/>
-      <c r="P884" s="2"/>
-      <c r="Q884" s="2"/>
-      <c r="R884" s="2"/>
-      <c r="S884" s="2"/>
-      <c r="T884" s="2"/>
-      <c r="U884" s="2" t="s">
+      <c r="O884" s="5"/>
+      <c r="P884" s="5"/>
+      <c r="Q884" s="5"/>
+      <c r="R884" s="5"/>
+      <c r="S884" s="5"/>
+      <c r="T884" s="5"/>
+      <c r="U884" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="V884" s="2" t="s">
+      <c r="V884" s="5" t="s">
         <v>883</v>
       </c>
     </row>
@@ -49314,44 +49046,42 @@
       <c r="V889" s="2"/>
     </row>
     <row r="890" spans="1:22">
-      <c r="A890" s="2" t="s">
+      <c r="A890" s="5" t="s">
         <v>2022</v>
       </c>
-      <c r="B890" s="2" t="s">
+      <c r="B890" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C890" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D890" s="2"/>
-      <c r="E890" s="2"/>
-      <c r="F890" s="2"/>
-      <c r="G890" s="2"/>
-      <c r="H890" s="2"/>
-      <c r="I890" s="2"/>
-      <c r="J890" s="2" t="s">
+      <c r="C890" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D890" s="5"/>
+      <c r="E890" s="5"/>
+      <c r="F890" s="5"/>
+      <c r="G890" s="5"/>
+      <c r="H890" s="5"/>
+      <c r="I890" s="5"/>
+      <c r="J890" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K890" s="2"/>
-      <c r="L890" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M890" s="2" t="s">
+      <c r="K890" s="5"/>
+      <c r="L890" s="7"/>
+      <c r="M890" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="N890" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O890" s="2"/>
-      <c r="P890" s="2"/>
-      <c r="Q890" s="2"/>
-      <c r="R890" s="2"/>
-      <c r="S890" s="2"/>
-      <c r="T890" s="2"/>
-      <c r="U890" s="2" t="s">
+      <c r="N890" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O890" s="5"/>
+      <c r="P890" s="5"/>
+      <c r="Q890" s="5"/>
+      <c r="R890" s="5"/>
+      <c r="S890" s="5"/>
+      <c r="T890" s="5"/>
+      <c r="U890" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V890" s="2"/>
+      <c r="V890" s="5"/>
     </row>
     <row r="891" spans="1:22">
       <c r="A891" s="2" t="s">
@@ -49747,9 +49477,7 @@
         <v>656</v>
       </c>
       <c r="K898" s="2"/>
-      <c r="L898" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L898" s="7"/>
       <c r="M898" s="2" t="s">
         <v>152</v>
       </c>
@@ -49803,9 +49531,7 @@
         <v>656</v>
       </c>
       <c r="K899" s="2"/>
-      <c r="L899" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L899" s="7"/>
       <c r="M899" s="2" t="s">
         <v>152</v>
       </c>
@@ -49859,9 +49585,7 @@
         <v>656</v>
       </c>
       <c r="K900" s="2"/>
-      <c r="L900" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L900" s="7"/>
       <c r="M900" s="2" t="s">
         <v>152</v>
       </c>
@@ -49915,9 +49639,7 @@
         <v>656</v>
       </c>
       <c r="K901" s="2"/>
-      <c r="L901" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L901" s="7"/>
       <c r="M901" s="2" t="s">
         <v>152</v>
       </c>
@@ -49971,9 +49693,7 @@
         <v>656</v>
       </c>
       <c r="K902" s="2"/>
-      <c r="L902" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L902" s="7"/>
       <c r="M902" s="2" t="s">
         <v>152</v>
       </c>
@@ -50000,46 +49720,44 @@
       <c r="V902" s="2"/>
     </row>
     <row r="903" spans="1:22">
-      <c r="A903" s="2" t="s">
+      <c r="A903" s="5" t="s">
         <v>2035</v>
       </c>
-      <c r="B903" s="2" t="s">
+      <c r="B903" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C903" s="2" t="s">
+      <c r="C903" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D903" s="2"/>
-      <c r="E903" s="2"/>
-      <c r="F903" s="2"/>
-      <c r="G903" s="2"/>
-      <c r="H903" s="2"/>
-      <c r="I903" s="2"/>
-      <c r="J903" s="2" t="s">
+      <c r="D903" s="5"/>
+      <c r="E903" s="5"/>
+      <c r="F903" s="5"/>
+      <c r="G903" s="5"/>
+      <c r="H903" s="5"/>
+      <c r="I903" s="5"/>
+      <c r="J903" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="K903" s="2" t="s">
+      <c r="K903" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="L903" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M903" s="2" t="s">
+      <c r="L903" s="7"/>
+      <c r="M903" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N903" s="2" t="s">
+      <c r="N903" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O903" s="2"/>
-      <c r="P903" s="2"/>
-      <c r="Q903" s="2"/>
-      <c r="R903" s="2"/>
-      <c r="S903" s="2"/>
-      <c r="T903" s="2"/>
-      <c r="U903" s="2" t="s">
+      <c r="O903" s="5"/>
+      <c r="P903" s="5"/>
+      <c r="Q903" s="5"/>
+      <c r="R903" s="5"/>
+      <c r="S903" s="5"/>
+      <c r="T903" s="5"/>
+      <c r="U903" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="V903" s="2" t="s">
+      <c r="V903" s="5" t="s">
         <v>880</v>
       </c>
     </row>
@@ -50306,44 +50024,42 @@
       <c r="V908" s="2"/>
     </row>
     <row r="909" spans="1:22">
-      <c r="A909" s="2" t="s">
+      <c r="A909" s="5" t="s">
         <v>2041</v>
       </c>
-      <c r="B909" s="2" t="s">
+      <c r="B909" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C909" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D909" s="2"/>
-      <c r="E909" s="2"/>
-      <c r="F909" s="2"/>
-      <c r="G909" s="2"/>
-      <c r="H909" s="2"/>
-      <c r="I909" s="2"/>
-      <c r="J909" s="2" t="s">
+      <c r="C909" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D909" s="5"/>
+      <c r="E909" s="5"/>
+      <c r="F909" s="5"/>
+      <c r="G909" s="5"/>
+      <c r="H909" s="5"/>
+      <c r="I909" s="5"/>
+      <c r="J909" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K909" s="2"/>
-      <c r="L909" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M909" s="2" t="s">
+      <c r="K909" s="5"/>
+      <c r="L909" s="7"/>
+      <c r="M909" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="N909" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O909" s="2"/>
-      <c r="P909" s="2"/>
-      <c r="Q909" s="2"/>
-      <c r="R909" s="2"/>
-      <c r="S909" s="2"/>
-      <c r="T909" s="2"/>
-      <c r="U909" s="2" t="s">
+      <c r="N909" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O909" s="5"/>
+      <c r="P909" s="5"/>
+      <c r="Q909" s="5"/>
+      <c r="R909" s="5"/>
+      <c r="S909" s="5"/>
+      <c r="T909" s="5"/>
+      <c r="U909" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V909" s="2"/>
+      <c r="V909" s="5"/>
     </row>
     <row r="910" spans="1:22">
       <c r="A910" s="2" t="s">
@@ -50739,9 +50455,7 @@
         <v>656</v>
       </c>
       <c r="K917" s="2"/>
-      <c r="L917" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L917" s="7"/>
       <c r="M917" s="2" t="s">
         <v>155</v>
       </c>
@@ -50768,46 +50482,44 @@
       <c r="V917" s="2"/>
     </row>
     <row r="918" spans="1:22">
-      <c r="A918" s="2" t="s">
+      <c r="A918" s="5" t="s">
         <v>2050</v>
       </c>
-      <c r="B918" s="2" t="s">
+      <c r="B918" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C918" s="2" t="s">
+      <c r="C918" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D918" s="2"/>
-      <c r="E918" s="2"/>
-      <c r="F918" s="2"/>
-      <c r="G918" s="2"/>
-      <c r="H918" s="2"/>
-      <c r="I918" s="2"/>
-      <c r="J918" s="2" t="s">
+      <c r="D918" s="5"/>
+      <c r="E918" s="5"/>
+      <c r="F918" s="5"/>
+      <c r="G918" s="5"/>
+      <c r="H918" s="5"/>
+      <c r="I918" s="5"/>
+      <c r="J918" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="K918" s="2" t="s">
+      <c r="K918" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="L918" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M918" s="2" t="s">
+      <c r="L918" s="7"/>
+      <c r="M918" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N918" s="2" t="s">
+      <c r="N918" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O918" s="2"/>
-      <c r="P918" s="2"/>
-      <c r="Q918" s="2"/>
-      <c r="R918" s="2"/>
-      <c r="S918" s="2"/>
-      <c r="T918" s="2"/>
-      <c r="U918" s="2" t="s">
+      <c r="O918" s="5"/>
+      <c r="P918" s="5"/>
+      <c r="Q918" s="5"/>
+      <c r="R918" s="5"/>
+      <c r="S918" s="5"/>
+      <c r="T918" s="5"/>
+      <c r="U918" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="V918" s="2" t="s">
+      <c r="V918" s="5" t="s">
         <v>880</v>
       </c>
     </row>
@@ -50935,9 +50647,7 @@
         <v>655</v>
       </c>
       <c r="K921" s="2"/>
-      <c r="L921" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L921" s="7"/>
       <c r="M921" s="2" t="s">
         <v>156</v>
       </c>
@@ -51222,46 +50932,44 @@
       </c>
     </row>
     <row r="927" spans="1:22">
-      <c r="A927" s="2" t="s">
+      <c r="A927" s="5" t="s">
         <v>2059</v>
       </c>
-      <c r="B927" s="2" t="s">
+      <c r="B927" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C927" s="2" t="s">
+      <c r="C927" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D927" s="2"/>
-      <c r="E927" s="2"/>
-      <c r="F927" s="2"/>
-      <c r="G927" s="2"/>
-      <c r="H927" s="2"/>
-      <c r="I927" s="2"/>
-      <c r="J927" s="2" t="s">
+      <c r="D927" s="5"/>
+      <c r="E927" s="5"/>
+      <c r="F927" s="5"/>
+      <c r="G927" s="5"/>
+      <c r="H927" s="5"/>
+      <c r="I927" s="5"/>
+      <c r="J927" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="K927" s="2" t="s">
+      <c r="K927" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="L927" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M927" s="2" t="s">
+      <c r="L927" s="7"/>
+      <c r="M927" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="N927" s="2" t="s">
+      <c r="N927" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O927" s="2"/>
-      <c r="P927" s="2"/>
-      <c r="Q927" s="2"/>
-      <c r="R927" s="2"/>
-      <c r="S927" s="2"/>
-      <c r="T927" s="2"/>
-      <c r="U927" s="2" t="s">
+      <c r="O927" s="5"/>
+      <c r="P927" s="5"/>
+      <c r="Q927" s="5"/>
+      <c r="R927" s="5"/>
+      <c r="S927" s="5"/>
+      <c r="T927" s="5"/>
+      <c r="U927" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="V927" s="2" t="s">
+      <c r="V927" s="5" t="s">
         <v>885</v>
       </c>
     </row>
@@ -51690,44 +51398,42 @@
       </c>
     </row>
     <row r="936" spans="1:22">
-      <c r="A936" s="2" t="s">
+      <c r="A936" s="5" t="s">
         <v>2068</v>
       </c>
-      <c r="B936" s="2" t="s">
+      <c r="B936" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C936" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D936" s="2"/>
-      <c r="E936" s="2"/>
-      <c r="F936" s="2"/>
-      <c r="G936" s="2"/>
-      <c r="H936" s="2"/>
-      <c r="I936" s="2"/>
-      <c r="J936" s="2" t="s">
+      <c r="C936" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D936" s="5"/>
+      <c r="E936" s="5"/>
+      <c r="F936" s="5"/>
+      <c r="G936" s="5"/>
+      <c r="H936" s="5"/>
+      <c r="I936" s="5"/>
+      <c r="J936" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K936" s="2"/>
-      <c r="L936" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M936" s="2" t="s">
+      <c r="K936" s="5"/>
+      <c r="L936" s="7"/>
+      <c r="M936" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N936" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O936" s="2"/>
-      <c r="P936" s="2"/>
-      <c r="Q936" s="2"/>
-      <c r="R936" s="2"/>
-      <c r="S936" s="2"/>
-      <c r="T936" s="2"/>
-      <c r="U936" s="2" t="s">
+      <c r="N936" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O936" s="5"/>
+      <c r="P936" s="5"/>
+      <c r="Q936" s="5"/>
+      <c r="R936" s="5"/>
+      <c r="S936" s="5"/>
+      <c r="T936" s="5"/>
+      <c r="U936" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V936" s="2"/>
+      <c r="V936" s="5"/>
     </row>
     <row r="937" spans="1:22">
       <c r="A937" s="2" t="s">
@@ -51996,46 +51702,44 @@
       </c>
     </row>
     <row r="942" spans="1:22">
-      <c r="A942" s="2" t="s">
+      <c r="A942" s="5" t="s">
         <v>2074</v>
       </c>
-      <c r="B942" s="2" t="s">
+      <c r="B942" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C942" s="2" t="s">
+      <c r="C942" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D942" s="2"/>
-      <c r="E942" s="2"/>
-      <c r="F942" s="2"/>
-      <c r="G942" s="2"/>
-      <c r="H942" s="2"/>
-      <c r="I942" s="2"/>
-      <c r="J942" s="2" t="s">
+      <c r="D942" s="5"/>
+      <c r="E942" s="5"/>
+      <c r="F942" s="5"/>
+      <c r="G942" s="5"/>
+      <c r="H942" s="5"/>
+      <c r="I942" s="5"/>
+      <c r="J942" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="K942" s="2" t="s">
+      <c r="K942" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="L942" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M942" s="2" t="s">
+      <c r="L942" s="7"/>
+      <c r="M942" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="N942" s="2" t="s">
+      <c r="N942" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O942" s="2"/>
-      <c r="P942" s="2"/>
-      <c r="Q942" s="2"/>
-      <c r="R942" s="2"/>
-      <c r="S942" s="2"/>
-      <c r="T942" s="2"/>
-      <c r="U942" s="2" t="s">
+      <c r="O942" s="5"/>
+      <c r="P942" s="5"/>
+      <c r="Q942" s="5"/>
+      <c r="R942" s="5"/>
+      <c r="S942" s="5"/>
+      <c r="T942" s="5"/>
+      <c r="U942" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="V942" s="2" t="s">
+      <c r="V942" s="5" t="s">
         <v>886</v>
       </c>
     </row>
@@ -52306,44 +52010,42 @@
       </c>
     </row>
     <row r="948" spans="1:22">
-      <c r="A948" s="2" t="s">
+      <c r="A948" s="5" t="s">
         <v>2080</v>
       </c>
-      <c r="B948" s="2" t="s">
+      <c r="B948" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C948" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D948" s="2"/>
-      <c r="E948" s="2"/>
-      <c r="F948" s="2"/>
-      <c r="G948" s="2"/>
-      <c r="H948" s="2"/>
-      <c r="I948" s="2"/>
-      <c r="J948" s="2" t="s">
+      <c r="C948" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D948" s="5"/>
+      <c r="E948" s="5"/>
+      <c r="F948" s="5"/>
+      <c r="G948" s="5"/>
+      <c r="H948" s="5"/>
+      <c r="I948" s="5"/>
+      <c r="J948" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K948" s="2"/>
-      <c r="L948" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M948" s="2" t="s">
+      <c r="K948" s="5"/>
+      <c r="L948" s="7"/>
+      <c r="M948" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N948" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O948" s="2"/>
-      <c r="P948" s="2"/>
-      <c r="Q948" s="2"/>
-      <c r="R948" s="2"/>
-      <c r="S948" s="2"/>
-      <c r="T948" s="2"/>
-      <c r="U948" s="2" t="s">
+      <c r="N948" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O948" s="5"/>
+      <c r="P948" s="5"/>
+      <c r="Q948" s="5"/>
+      <c r="R948" s="5"/>
+      <c r="S948" s="5"/>
+      <c r="T948" s="5"/>
+      <c r="U948" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V948" s="2"/>
+      <c r="V948" s="5"/>
     </row>
     <row r="949" spans="1:22">
       <c r="A949" s="2" t="s">
@@ -52477,9 +52179,7 @@
         <v>656</v>
       </c>
       <c r="K951" s="2"/>
-      <c r="L951" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L951" s="7"/>
       <c r="M951" s="2" t="s">
         <v>160</v>
       </c>
@@ -52591,9 +52291,7 @@
         <v>656</v>
       </c>
       <c r="K953" s="2"/>
-      <c r="L953" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L953" s="7"/>
       <c r="M953" s="2" t="s">
         <v>160</v>
       </c>
@@ -52720,46 +52418,44 @@
       <c r="V955" s="2"/>
     </row>
     <row r="956" spans="1:22">
-      <c r="A956" s="2" t="s">
+      <c r="A956" s="5" t="s">
         <v>2088</v>
       </c>
-      <c r="B956" s="2" t="s">
+      <c r="B956" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C956" s="2" t="s">
+      <c r="C956" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D956" s="2"/>
-      <c r="E956" s="2"/>
-      <c r="F956" s="2"/>
-      <c r="G956" s="2"/>
-      <c r="H956" s="2"/>
-      <c r="I956" s="2"/>
-      <c r="J956" s="2" t="s">
+      <c r="D956" s="5"/>
+      <c r="E956" s="5"/>
+      <c r="F956" s="5"/>
+      <c r="G956" s="5"/>
+      <c r="H956" s="5"/>
+      <c r="I956" s="5"/>
+      <c r="J956" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="K956" s="2" t="s">
+      <c r="K956" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="L956" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M956" s="2" t="s">
+      <c r="L956" s="7"/>
+      <c r="M956" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N956" s="2" t="s">
+      <c r="N956" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O956" s="2"/>
-      <c r="P956" s="2"/>
-      <c r="Q956" s="2"/>
-      <c r="R956" s="2"/>
-      <c r="S956" s="2"/>
-      <c r="T956" s="2"/>
-      <c r="U956" s="2" t="s">
+      <c r="O956" s="5"/>
+      <c r="P956" s="5"/>
+      <c r="Q956" s="5"/>
+      <c r="R956" s="5"/>
+      <c r="S956" s="5"/>
+      <c r="T956" s="5"/>
+      <c r="U956" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="V956" s="2" t="s">
+      <c r="V956" s="5" t="s">
         <v>887</v>
       </c>
     </row>
@@ -53030,44 +52726,42 @@
       </c>
     </row>
     <row r="962" spans="1:22">
-      <c r="A962" s="2" t="s">
+      <c r="A962" s="5" t="s">
         <v>2094</v>
       </c>
-      <c r="B962" s="2" t="s">
+      <c r="B962" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C962" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D962" s="2"/>
-      <c r="E962" s="2"/>
-      <c r="F962" s="2"/>
-      <c r="G962" s="2"/>
-      <c r="H962" s="2"/>
-      <c r="I962" s="2"/>
-      <c r="J962" s="2" t="s">
+      <c r="C962" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D962" s="5"/>
+      <c r="E962" s="5"/>
+      <c r="F962" s="5"/>
+      <c r="G962" s="5"/>
+      <c r="H962" s="5"/>
+      <c r="I962" s="5"/>
+      <c r="J962" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K962" s="2"/>
-      <c r="L962" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M962" s="2" t="s">
+      <c r="K962" s="5"/>
+      <c r="L962" s="7"/>
+      <c r="M962" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N962" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O962" s="2"/>
-      <c r="P962" s="2"/>
-      <c r="Q962" s="2"/>
-      <c r="R962" s="2"/>
-      <c r="S962" s="2"/>
-      <c r="T962" s="2"/>
-      <c r="U962" s="2" t="s">
+      <c r="N962" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O962" s="5"/>
+      <c r="P962" s="5"/>
+      <c r="Q962" s="5"/>
+      <c r="R962" s="5"/>
+      <c r="S962" s="5"/>
+      <c r="T962" s="5"/>
+      <c r="U962" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V962" s="2"/>
+      <c r="V962" s="5"/>
     </row>
     <row r="963" spans="1:22">
       <c r="A963" s="2" t="s">
@@ -53201,9 +52895,7 @@
         <v>656</v>
       </c>
       <c r="K965" s="2"/>
-      <c r="L965" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L965" s="7"/>
       <c r="M965" s="2" t="s">
         <v>160</v>
       </c>
@@ -53315,9 +53007,7 @@
         <v>656</v>
       </c>
       <c r="K967" s="2"/>
-      <c r="L967" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L967" s="7"/>
       <c r="M967" s="2" t="s">
         <v>160</v>
       </c>
@@ -53444,44 +53134,42 @@
       <c r="V969" s="2"/>
     </row>
     <row r="970" spans="1:22">
-      <c r="A970" s="2" t="s">
+      <c r="A970" s="5" t="s">
         <v>2102</v>
       </c>
-      <c r="B970" s="2" t="s">
+      <c r="B970" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C970" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D970" s="2"/>
-      <c r="E970" s="2"/>
-      <c r="F970" s="2"/>
-      <c r="G970" s="2"/>
-      <c r="H970" s="2"/>
-      <c r="I970" s="2"/>
-      <c r="J970" s="2" t="s">
+      <c r="C970" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D970" s="5"/>
+      <c r="E970" s="5"/>
+      <c r="F970" s="5"/>
+      <c r="G970" s="5"/>
+      <c r="H970" s="5"/>
+      <c r="I970" s="5"/>
+      <c r="J970" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K970" s="2"/>
-      <c r="L970" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M970" s="2" t="s">
+      <c r="K970" s="5"/>
+      <c r="L970" s="7"/>
+      <c r="M970" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N970" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O970" s="2"/>
-      <c r="P970" s="2"/>
-      <c r="Q970" s="2"/>
-      <c r="R970" s="2"/>
-      <c r="S970" s="2"/>
-      <c r="T970" s="2"/>
-      <c r="U970" s="2" t="s">
+      <c r="N970" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O970" s="5"/>
+      <c r="P970" s="5"/>
+      <c r="Q970" s="5"/>
+      <c r="R970" s="5"/>
+      <c r="S970" s="5"/>
+      <c r="T970" s="5"/>
+      <c r="U970" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V970" s="2"/>
+      <c r="V970" s="5"/>
     </row>
     <row r="971" spans="1:22">
       <c r="A971" s="2" t="s">
@@ -53615,9 +53303,7 @@
         <v>656</v>
       </c>
       <c r="K973" s="2"/>
-      <c r="L973" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L973" s="7"/>
       <c r="M973" s="2" t="s">
         <v>162</v>
       </c>
@@ -53841,9 +53527,7 @@
         <v>656</v>
       </c>
       <c r="K977" s="2"/>
-      <c r="L977" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L977" s="7"/>
       <c r="M977" s="2" t="s">
         <v>162</v>
       </c>
@@ -53870,46 +53554,44 @@
       <c r="V977" s="2"/>
     </row>
     <row r="978" spans="1:22">
-      <c r="A978" s="2" t="s">
+      <c r="A978" s="5" t="s">
         <v>2110</v>
       </c>
-      <c r="B978" s="2" t="s">
+      <c r="B978" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C978" s="2" t="s">
+      <c r="C978" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D978" s="2"/>
-      <c r="E978" s="2"/>
-      <c r="F978" s="2"/>
-      <c r="G978" s="2"/>
-      <c r="H978" s="2"/>
-      <c r="I978" s="2"/>
-      <c r="J978" s="2" t="s">
+      <c r="D978" s="5"/>
+      <c r="E978" s="5"/>
+      <c r="F978" s="5"/>
+      <c r="G978" s="5"/>
+      <c r="H978" s="5"/>
+      <c r="I978" s="5"/>
+      <c r="J978" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="K978" s="2" t="s">
+      <c r="K978" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="L978" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M978" s="2" t="s">
+      <c r="L978" s="7"/>
+      <c r="M978" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="N978" s="2" t="s">
+      <c r="N978" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="O978" s="2"/>
-      <c r="P978" s="2"/>
-      <c r="Q978" s="2"/>
-      <c r="R978" s="2"/>
-      <c r="S978" s="2"/>
-      <c r="T978" s="2"/>
-      <c r="U978" s="2" t="s">
+      <c r="O978" s="5"/>
+      <c r="P978" s="5"/>
+      <c r="Q978" s="5"/>
+      <c r="R978" s="5"/>
+      <c r="S978" s="5"/>
+      <c r="T978" s="5"/>
+      <c r="U978" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="V978" s="2" t="s">
+      <c r="V978" s="5" t="s">
         <v>889</v>
       </c>
     </row>
@@ -54180,44 +53862,42 @@
       </c>
     </row>
     <row r="984" spans="1:22">
-      <c r="A984" s="2" t="s">
+      <c r="A984" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="B984" s="2" t="s">
+      <c r="B984" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C984" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D984" s="2"/>
-      <c r="E984" s="2"/>
-      <c r="F984" s="2"/>
-      <c r="G984" s="2"/>
-      <c r="H984" s="2"/>
-      <c r="I984" s="2"/>
-      <c r="J984" s="2" t="s">
+      <c r="C984" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D984" s="5"/>
+      <c r="E984" s="5"/>
+      <c r="F984" s="5"/>
+      <c r="G984" s="5"/>
+      <c r="H984" s="5"/>
+      <c r="I984" s="5"/>
+      <c r="J984" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="K984" s="2"/>
-      <c r="L984" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M984" s="2" t="s">
+      <c r="K984" s="5"/>
+      <c r="L984" s="7"/>
+      <c r="M984" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="N984" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O984" s="2"/>
-      <c r="P984" s="2"/>
-      <c r="Q984" s="2"/>
-      <c r="R984" s="2"/>
-      <c r="S984" s="2"/>
-      <c r="T984" s="2"/>
-      <c r="U984" s="2" t="s">
+      <c r="N984" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O984" s="5"/>
+      <c r="P984" s="5"/>
+      <c r="Q984" s="5"/>
+      <c r="R984" s="5"/>
+      <c r="S984" s="5"/>
+      <c r="T984" s="5"/>
+      <c r="U984" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="V984" s="2"/>
+      <c r="V984" s="5"/>
     </row>
     <row r="985" spans="1:22">
       <c r="A985" s="2" t="s">
@@ -54424,46 +54104,44 @@
       <c r="V988" s="2"/>
     </row>
     <row r="989" spans="1:22">
-      <c r="A989" s="2" t="s">
+      <c r="A989" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="B989" s="2" t="s">
+      <c r="B989" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C989" s="2" t="s">
+      <c r="C989" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D989" s="2"/>
-      <c r="E989" s="2"/>
-      <c r="F989" s="2"/>
-      <c r="G989" s="2"/>
-      <c r="H989" s="2"/>
-      <c r="I989" s="2"/>
-      <c r="J989" s="2" t="s">
+      <c r="D989" s="5"/>
+      <c r="E989" s="5"/>
+      <c r="F989" s="5"/>
+      <c r="G989" s="5"/>
+      <c r="H989" s="5"/>
+      <c r="I989" s="5"/>
+      <c r="J989" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="K989" s="2" t="s">
+      <c r="K989" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="L989" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M989" s="2" t="s">
+      <c r="L989" s="7"/>
+      <c r="M989" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="N989" s="2" t="s">
+      <c r="N989" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O989" s="2"/>
-      <c r="P989" s="2"/>
-      <c r="Q989" s="2"/>
-      <c r="R989" s="2"/>
-      <c r="S989" s="2"/>
-      <c r="T989" s="2"/>
-      <c r="U989" s="2" t="s">
+      <c r="O989" s="5"/>
+      <c r="P989" s="5"/>
+      <c r="Q989" s="5"/>
+      <c r="R989" s="5"/>
+      <c r="S989" s="5"/>
+      <c r="T989" s="5"/>
+      <c r="U989" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="V989" s="2" t="s">
+      <c r="V989" s="5" t="s">
         <v>890</v>
       </c>
     </row>
@@ -54711,9 +54389,7 @@
         <v>656</v>
       </c>
       <c r="K994" s="2"/>
-      <c r="L994" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L994" s="7"/>
       <c r="M994" s="2" t="s">
         <v>165</v>
       </c>
@@ -54902,46 +54578,44 @@
       </c>
     </row>
     <row r="998" spans="1:22">
-      <c r="A998" s="2" t="s">
+      <c r="A998" s="5" t="s">
         <v>2130</v>
       </c>
-      <c r="B998" s="2" t="s">
+      <c r="B998" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C998" s="2" t="s">
+      <c r="C998" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2" t="s">
+      <c r="D998" s="5"/>
+      <c r="E998" s="5"/>
+      <c r="F998" s="5"/>
+      <c r="G998" s="5"/>
+      <c r="H998" s="5"/>
+      <c r="I998" s="5"/>
+      <c r="J998" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="K998" s="2" t="s">
+      <c r="K998" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="L998" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M998" s="2" t="s">
+      <c r="L998" s="7"/>
+      <c r="M998" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N998" s="2" t="s">
+      <c r="N998" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2" t="s">
+      <c r="O998" s="5"/>
+      <c r="P998" s="5"/>
+      <c r="Q998" s="5"/>
+      <c r="R998" s="5"/>
+      <c r="S998" s="5"/>
+      <c r="T998" s="5"/>
+      <c r="U998" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="V998" s="2" t="s">
+      <c r="V998" s="5" t="s">
         <v>890</v>
       </c>
     </row>
@@ -55189,9 +54863,7 @@
         <v>656</v>
       </c>
       <c r="K1003" s="2"/>
-      <c r="L1003" s="4" t="s">
-        <v>894</v>
-      </c>
+      <c r="L1003" s="7"/>
       <c r="M1003" s="2" t="s">
         <v>166</v>
       </c>
@@ -55600,46 +55272,44 @@
       </c>
     </row>
     <row r="1011" spans="1:22">
-      <c r="A1011" s="2" t="s">
+      <c r="A1011" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="B1011" s="2" t="s">
+      <c r="B1011" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C1011" s="2" t="s">
+      <c r="C1011" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D1011" s="2"/>
-      <c r="E1011" s="2"/>
-      <c r="F1011" s="2"/>
-      <c r="G1011" s="2"/>
-      <c r="H1011" s="2"/>
-      <c r="I1011" s="2"/>
-      <c r="J1011" s="2" t="s">
+      <c r="D1011" s="5"/>
+      <c r="E1011" s="5"/>
+      <c r="F1011" s="5"/>
+      <c r="G1011" s="5"/>
+      <c r="H1011" s="5"/>
+      <c r="I1011" s="5"/>
+      <c r="J1011" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="K1011" s="2" t="s">
+      <c r="K1011" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="L1011" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="M1011" s="2" t="s">
+      <c r="L1011" s="7"/>
+      <c r="M1011" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N1011" s="2" t="s">
+      <c r="N1011" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O1011" s="2"/>
-      <c r="P1011" s="2"/>
-      <c r="Q1011" s="2"/>
-      <c r="R1011" s="2"/>
-      <c r="S1011" s="2"/>
-      <c r="T1011" s="2"/>
-      <c r="U1011" s="2" t="s">
+      <c r="O1011" s="5"/>
+      <c r="P1011" s="5"/>
+      <c r="Q1011" s="5"/>
+      <c r="R1011" s="5"/>
+      <c r="S1011" s="5"/>
+      <c r="T1011" s="5"/>
+      <c r="U1011" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="V1011" s="2" t="s">
+      <c r="V1011" s="5" t="s">
         <v>892</v>
       </c>
     </row>
